--- a/PricerAndQutation/OptionPricer_v2_20180313.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180313.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="217">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -747,14 +747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>al1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江铜国贸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rb1810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +780,23 @@
   </si>
   <si>
     <t>95|102.5</t>
+  </si>
+  <si>
+    <t>au9999</t>
+  </si>
+  <si>
+    <t>pp1809</t>
+  </si>
+  <si>
+    <t>pp1809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1810</t>
+  </si>
+  <si>
+    <t>cu1810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -801,7 +810,7 @@
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="###,###,##0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,8 +1066,16 @@
       <name val="Inherit"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1158,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1335,7 +1357,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1343,8 +1365,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1595,14 +1620,17 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1613,31 +1641,28 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1649,11 +1674,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1673,22 +1700,41 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
+        <v>9005</v>
+        <stp/>
+        <stp>pp1809</stp>
+        <stp>LastPrice</stp>
+        <tr r="P19" s="1"/>
+        <tr r="P20" s="1"/>
+        <tr r="P21" s="1"/>
+      </tp>
+      <tp>
+        <v>53210</v>
+        <stp/>
+        <stp>cu1810</stp>
+        <stp>LastPrice</stp>
+        <tr r="P23" s="1"/>
+        <tr r="P24" s="1"/>
+        <tr r="P22" s="1"/>
+      </tp>
+      <tp>
         <v>3621</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
-        <tr r="P17" s="9"/>
-        <tr r="P23" s="9"/>
-        <tr r="P14" s="9"/>
         <tr r="P11" s="9"/>
         <tr r="P26" s="9"/>
+        <tr r="P17" s="9"/>
+        <tr r="P14" s="9"/>
         <tr r="P20" s="9"/>
+        <tr r="P23" s="9"/>
+        <tr r="P17" s="1"/>
+        <tr r="P16" s="1"/>
         <tr r="P13" s="1"/>
-        <tr r="P15" s="1"/>
-        <tr r="P16" s="1"/>
+        <tr r="P14" s="1"/>
       </tp>
       <tp>
-        <v>3735</v>
+        <v>3752</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1989,20 +2035,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R30"/>
+  <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="6" width="12.625" style="6" customWidth="1"/>
-    <col min="7" max="13" width="12.625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="12.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2016,7 +2073,7 @@
     <row r="2" spans="2:18" ht="12" thickTop="1"/>
     <row r="3" spans="2:18" ht="13.5">
       <c r="I3" s="143" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:18">
@@ -2608,7 +2665,7 @@
         <v>160</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D17" s="138">
         <v>43172</v>
@@ -2710,7 +2767,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D19" s="138">
         <v>43172</v>
@@ -2763,7 +2820,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="138">
         <v>43172</v>
@@ -2816,7 +2873,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21" s="138">
         <v>43172</v>
@@ -2869,7 +2926,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="137" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D22" s="138">
         <v>43172</v>
@@ -2971,7 +3028,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D24" s="138">
         <v>43172</v>
@@ -3175,7 +3232,7 @@
         <v>160</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D29" s="138">
         <v>43173</v>
@@ -3184,7 +3241,7 @@
         <v>43203</v>
       </c>
       <c r="F29" s="137" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="137">
         <v>30</v>
@@ -3220,7 +3277,7 @@
         <v>160</v>
       </c>
       <c r="C30" s="137" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D30" s="138">
         <v>43173</v>
@@ -3229,7 +3286,7 @@
         <v>43203</v>
       </c>
       <c r="F30" s="137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G30" s="137">
         <v>30</v>
@@ -3258,6 +3315,504 @@
       <c r="Q30" s="137"/>
       <c r="R30" s="137" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="137" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E32" s="138">
+        <v>43206</v>
+      </c>
+      <c r="F32" s="137">
+        <v>270</v>
+      </c>
+      <c r="G32" s="137">
+        <v>32</v>
+      </c>
+      <c r="H32" s="137">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I32" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="J32" s="137">
+        <v>0.13</v>
+      </c>
+      <c r="K32" s="137">
+        <v>-5.09179079711177</v>
+      </c>
+      <c r="L32" s="137">
+        <v>50</v>
+      </c>
+      <c r="M32" s="137">
+        <v>0.11881643835616439</v>
+      </c>
+      <c r="N32" s="140">
+        <v>5.2106072354679345</v>
+      </c>
+      <c r="O32" s="137">
+        <v>271.05</v>
+      </c>
+      <c r="P32" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="137" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E33" s="138">
+        <v>43235</v>
+      </c>
+      <c r="F33" s="137">
+        <v>270</v>
+      </c>
+      <c r="G33" s="137">
+        <v>61</v>
+      </c>
+      <c r="H33" s="137">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="I33" s="137">
+        <v>0.03</v>
+      </c>
+      <c r="J33" s="137">
+        <v>0.13</v>
+      </c>
+      <c r="K33" s="137">
+        <v>-7.0124054757578733</v>
+      </c>
+      <c r="L33" s="137">
+        <v>50</v>
+      </c>
+      <c r="M33" s="137">
+        <v>0.2264938356164384</v>
+      </c>
+      <c r="N33" s="140">
+        <v>7.2388993113743121</v>
+      </c>
+      <c r="O33" s="137">
+        <v>271.05</v>
+      </c>
+      <c r="P33" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E36" s="138">
+        <v>43206</v>
+      </c>
+      <c r="F36" s="137">
+        <v>9008</v>
+      </c>
+      <c r="G36" s="137">
+        <v>32</v>
+      </c>
+      <c r="H36" s="137">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137">
+        <v>0.17</v>
+      </c>
+      <c r="K36" s="137">
+        <v>-180.55460609729562</v>
+      </c>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137">
+        <v>3.9487123287671233</v>
+      </c>
+      <c r="N36" s="140">
+        <v>184.50331842606275</v>
+      </c>
+      <c r="O36" s="137">
+        <v>9008</v>
+      </c>
+      <c r="P36" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E37" s="138">
+        <v>43266</v>
+      </c>
+      <c r="F37" s="137">
+        <v>9008</v>
+      </c>
+      <c r="G37" s="137">
+        <v>92</v>
+      </c>
+      <c r="H37" s="137">
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137">
+        <v>0.18</v>
+      </c>
+      <c r="K37" s="137">
+        <v>-323.01400365912923</v>
+      </c>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137">
+        <v>11.35254794520548</v>
+      </c>
+      <c r="N37" s="140">
+        <v>334.36655160433469</v>
+      </c>
+      <c r="O37" s="137">
+        <v>9008</v>
+      </c>
+      <c r="P37" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E38" s="138">
+        <v>43327</v>
+      </c>
+      <c r="F38" s="137">
+        <v>9008</v>
+      </c>
+      <c r="G38" s="137">
+        <v>153</v>
+      </c>
+      <c r="H38" s="137">
+        <v>0.41917808219178082</v>
+      </c>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137">
+        <v>0.19</v>
+      </c>
+      <c r="K38" s="137">
+        <v>-438.10340978749991</v>
+      </c>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137">
+        <v>0</v>
+      </c>
+      <c r="N38" s="140">
+        <v>438.10340978749991</v>
+      </c>
+      <c r="O38" s="137">
+        <v>9008</v>
+      </c>
+      <c r="P38" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E39" s="138">
+        <v>43206</v>
+      </c>
+      <c r="F39" s="137">
+        <v>53180</v>
+      </c>
+      <c r="G39" s="137">
+        <v>32</v>
+      </c>
+      <c r="H39" s="137">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137">
+        <v>0.18</v>
+      </c>
+      <c r="K39" s="137">
+        <v>-1128.6169261420218</v>
+      </c>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137">
+        <v>0</v>
+      </c>
+      <c r="N39" s="140">
+        <v>1128.6169261420218</v>
+      </c>
+      <c r="O39" s="137">
+        <v>53180</v>
+      </c>
+      <c r="P39" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E40" s="138">
+        <v>43266</v>
+      </c>
+      <c r="F40" s="137">
+        <v>53180</v>
+      </c>
+      <c r="G40" s="137">
+        <v>92</v>
+      </c>
+      <c r="H40" s="137">
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137">
+        <v>0.19</v>
+      </c>
+      <c r="K40" s="137">
+        <v>-2012.822743117471</v>
+      </c>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137">
+        <v>0</v>
+      </c>
+      <c r="N40" s="140">
+        <v>2012.822743117471</v>
+      </c>
+      <c r="O40" s="137">
+        <v>53180</v>
+      </c>
+      <c r="P40" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="138">
+        <v>43174</v>
+      </c>
+      <c r="E41" s="138">
+        <v>43357</v>
+      </c>
+      <c r="F41" s="137">
+        <v>53180</v>
+      </c>
+      <c r="G41" s="137">
+        <v>183</v>
+      </c>
+      <c r="H41" s="137">
+        <v>0.50136986301369868</v>
+      </c>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137">
+        <v>0.19</v>
+      </c>
+      <c r="K41" s="137">
+        <v>-2823.6368912623439</v>
+      </c>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137">
+        <v>0</v>
+      </c>
+      <c r="N41" s="140">
+        <v>2823.6368912623439</v>
+      </c>
+      <c r="O41" s="137">
+        <v>53180</v>
+      </c>
+      <c r="P41" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="137">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="137" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3527,8 +4082,8 @@
   <dimension ref="B1:Y49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36:E48"/>
+      <pane ySplit="17" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -3543,75 +4098,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="161"/>
+      <c r="C1" s="164"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="G3" s="166" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="G3" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="L3" s="162" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="L3" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="Q3" s="166" t="s">
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="Q3" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="G4" s="163" t="s">
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="G4" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="L4" s="163" t="s">
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="L4" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="Q4" s="163" t="s">
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="Q4" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="165"/>
-      <c r="G5" s="160" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
+      <c r="G5" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="160"/>
+      <c r="H5" s="159"/>
       <c r="I5" s="130"/>
       <c r="J5" s="131"/>
       <c r="L5" s="128" t="s">
@@ -3620,360 +4175,360 @@
       <c r="M5" s="129"/>
       <c r="N5" s="130"/>
       <c r="O5" s="131"/>
-      <c r="Q5" s="160" t="s">
+      <c r="Q5" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="160"/>
+      <c r="R5" s="159"/>
       <c r="S5" s="130"/>
       <c r="T5" s="131"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="158" t="s">
+      <c r="C6" s="159"/>
+      <c r="D6" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="G6" s="160" t="s">
+      <c r="E6" s="161"/>
+      <c r="G6" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
-      <c r="L6" s="160" t="s">
+      <c r="H6" s="159"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="161"/>
+      <c r="L6" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="160"/>
-      <c r="N6" s="158" t="s">
+      <c r="M6" s="159"/>
+      <c r="N6" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="159"/>
-      <c r="Q6" s="160" t="s">
+      <c r="O6" s="161"/>
+      <c r="Q6" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="160"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="161"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="158" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="G7" s="160" t="s">
+      <c r="E7" s="161"/>
+      <c r="G7" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
-      <c r="L7" s="160" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="L7" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="160"/>
-      <c r="N7" s="158" t="s">
+      <c r="M7" s="159"/>
+      <c r="N7" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="159"/>
-      <c r="Q7" s="160" t="s">
+      <c r="O7" s="161"/>
+      <c r="Q7" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="160"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="161"/>
     </row>
     <row r="8" spans="2:20" hidden="1">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="158">
+      <c r="C8" s="159"/>
+      <c r="D8" s="160">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="G8" s="160" t="s">
+      <c r="E8" s="161"/>
+      <c r="G8" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="L8" s="160" t="s">
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="161"/>
+      <c r="L8" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="160"/>
-      <c r="N8" s="158">
+      <c r="M8" s="159"/>
+      <c r="N8" s="160">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="159"/>
-      <c r="Q8" s="160" t="s">
+      <c r="O8" s="161"/>
+      <c r="Q8" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="160"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="161"/>
     </row>
     <row r="9" spans="2:20" hidden="1">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="158" t="s">
+      <c r="C9" s="159"/>
+      <c r="D9" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="159"/>
-      <c r="G9" s="160" t="s">
+      <c r="E9" s="161"/>
+      <c r="G9" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
-      <c r="L9" s="160" t="s">
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
+      <c r="L9" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="160"/>
-      <c r="N9" s="158" t="s">
+      <c r="M9" s="159"/>
+      <c r="N9" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="159"/>
-      <c r="Q9" s="160" t="s">
+      <c r="O9" s="161"/>
+      <c r="Q9" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="160"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="161"/>
     </row>
     <row r="10" spans="2:20" hidden="1">
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="158">
+      <c r="C10" s="159"/>
+      <c r="D10" s="160">
         <v>43084</v>
       </c>
-      <c r="E10" s="159"/>
+      <c r="E10" s="161"/>
       <c r="G10" s="132" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="132"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
-      <c r="L10" s="160" t="s">
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
+      <c r="L10" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="160"/>
-      <c r="N10" s="158">
+      <c r="M10" s="159"/>
+      <c r="N10" s="160">
         <v>43084</v>
       </c>
-      <c r="O10" s="159"/>
+      <c r="O10" s="161"/>
       <c r="Q10" s="132" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="132"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="161"/>
     </row>
     <row r="11" spans="2:20" hidden="1">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="158">
+      <c r="C11" s="159"/>
+      <c r="D11" s="160">
         <v>3935</v>
       </c>
-      <c r="E11" s="159"/>
-      <c r="G11" s="160" t="s">
+      <c r="E11" s="161"/>
+      <c r="G11" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="L11" s="160" t="s">
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
+      <c r="L11" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="160"/>
-      <c r="N11" s="158">
+      <c r="M11" s="159"/>
+      <c r="N11" s="160">
         <v>3935</v>
       </c>
-      <c r="O11" s="159"/>
-      <c r="Q11" s="160" t="s">
+      <c r="O11" s="161"/>
+      <c r="Q11" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="160"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="161"/>
     </row>
     <row r="12" spans="2:20" hidden="1">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="158">
+      <c r="C12" s="159"/>
+      <c r="D12" s="160">
         <v>3800</v>
       </c>
-      <c r="E12" s="159"/>
-      <c r="G12" s="160" t="s">
+      <c r="E12" s="161"/>
+      <c r="G12" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="160"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-      <c r="L12" s="160" t="s">
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
+      <c r="L12" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="160"/>
-      <c r="N12" s="158">
+      <c r="M12" s="159"/>
+      <c r="N12" s="160">
         <v>3800</v>
       </c>
-      <c r="O12" s="159"/>
-      <c r="Q12" s="160" t="s">
+      <c r="O12" s="161"/>
+      <c r="Q12" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="160"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="161"/>
     </row>
     <row r="13" spans="2:20" hidden="1">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="158">
+      <c r="C13" s="159"/>
+      <c r="D13" s="160">
         <v>61</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="G13" s="160" t="s">
+      <c r="E13" s="161"/>
+      <c r="G13" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="160"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
-      <c r="L13" s="160" t="s">
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
+      <c r="L13" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="160"/>
-      <c r="N13" s="158">
+      <c r="M13" s="159"/>
+      <c r="N13" s="160">
         <v>3800</v>
       </c>
-      <c r="O13" s="159"/>
-      <c r="Q13" s="160" t="s">
+      <c r="O13" s="161"/>
+      <c r="Q13" s="159" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="160"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="159"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="161"/>
     </row>
     <row r="14" spans="2:20" hidden="1">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="158" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="G14" s="160" t="s">
+      <c r="E14" s="161"/>
+      <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="160"/>
+      <c r="H14" s="159"/>
       <c r="I14" s="133"/>
       <c r="J14" s="134"/>
-      <c r="L14" s="160" t="s">
+      <c r="L14" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="160"/>
-      <c r="N14" s="158">
+      <c r="M14" s="159"/>
+      <c r="N14" s="160">
         <v>61</v>
       </c>
-      <c r="O14" s="159"/>
-      <c r="Q14" s="160" t="s">
+      <c r="O14" s="161"/>
+      <c r="Q14" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="160"/>
-      <c r="S14" s="158"/>
-      <c r="T14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="161"/>
     </row>
     <row r="15" spans="2:20" hidden="1">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="158">
+      <c r="C15" s="159"/>
+      <c r="D15" s="160">
         <v>5000</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="G15" s="160" t="s">
+      <c r="E15" s="161"/>
+      <c r="G15" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="160"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
-      <c r="L15" s="160" t="s">
+      <c r="H15" s="159"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
+      <c r="L15" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="160"/>
-      <c r="N15" s="158" t="s">
+      <c r="M15" s="159"/>
+      <c r="N15" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="159"/>
-      <c r="Q15" s="160" t="s">
+      <c r="O15" s="161"/>
+      <c r="Q15" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="160"/>
+      <c r="R15" s="159"/>
       <c r="S15" s="133"/>
       <c r="T15" s="134"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156" t="s">
+      <c r="C16" s="156"/>
+      <c r="D16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="G16" s="155" t="s">
+      <c r="E16" s="158"/>
+      <c r="G16" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="157"/>
-      <c r="L16" s="160" t="s">
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
+      <c r="L16" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="160"/>
-      <c r="N16" s="158">
+      <c r="M16" s="159"/>
+      <c r="N16" s="160">
         <v>5000</v>
       </c>
-      <c r="O16" s="159"/>
-      <c r="Q16" s="160" t="s">
+      <c r="O16" s="161"/>
+      <c r="Q16" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="160"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="159"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="161"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1">
-      <c r="L17" s="155" t="s">
+      <c r="L17" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="155"/>
-      <c r="N17" s="156" t="s">
+      <c r="M17" s="156"/>
+      <c r="N17" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="157"/>
-      <c r="Q17" s="155" t="s">
+      <c r="O17" s="158"/>
+      <c r="Q17" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="155"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="157"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="158"/>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="135" t="s">
@@ -4003,81 +4558,81 @@
       <c r="Y21" s="136"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="G22" s="153" t="s">
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="G22" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="L22" s="163" t="s">
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="L22" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="Q22" s="153" t="s">
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="Q22" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="V22" s="163" t="s">
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="V22" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="163"/>
+      <c r="W22" s="152"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1">
       <c r="B23" s="146" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="146"/>
-      <c r="D23" s="152">
+      <c r="D23" s="153">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="E23" s="154"/>
       <c r="G23" s="146" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="146"/>
-      <c r="I23" s="152">
+      <c r="I23" s="153">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="J23" s="154"/>
       <c r="L23" s="146" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="146"/>
-      <c r="N23" s="152">
+      <c r="N23" s="153">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="O23" s="154"/>
       <c r="Q23" s="146" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="146"/>
-      <c r="S23" s="152">
+      <c r="S23" s="153">
         <f ca="1">TODAY()-1</f>
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="T23" s="154"/>
       <c r="V23" s="146" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="146"/>
-      <c r="X23" s="152">
+      <c r="X23" s="153">
         <f ca="1">TODAY()-1</f>
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="Y23" s="154"/>
     </row>
@@ -4259,7 +4814,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="146"/>
-      <c r="D28" s="152">
+      <c r="D28" s="153">
         <v>43182</v>
       </c>
       <c r="E28" s="148"/>
@@ -4267,7 +4822,7 @@
         <v>134</v>
       </c>
       <c r="H28" s="146"/>
-      <c r="I28" s="152">
+      <c r="I28" s="153">
         <v>43182</v>
       </c>
       <c r="J28" s="148"/>
@@ -4275,7 +4830,7 @@
         <v>134</v>
       </c>
       <c r="M28" s="146"/>
-      <c r="N28" s="152">
+      <c r="N28" s="153">
         <v>43219</v>
       </c>
       <c r="O28" s="148"/>
@@ -4283,7 +4838,7 @@
         <v>134</v>
       </c>
       <c r="R28" s="146"/>
-      <c r="S28" s="152">
+      <c r="S28" s="153">
         <v>43201</v>
       </c>
       <c r="T28" s="148"/>
@@ -4291,7 +4846,7 @@
         <v>134</v>
       </c>
       <c r="W28" s="146"/>
-      <c r="X28" s="152">
+      <c r="X28" s="153">
         <v>43201</v>
       </c>
       <c r="Y28" s="148"/>
@@ -4550,21 +5105,21 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1"/>
     <row r="36" spans="2:25" ht="12" thickBot="1">
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1">
       <c r="B37" s="146" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="146"/>
-      <c r="D37" s="152">
+      <c r="D37" s="153">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="E37" s="154"/>
     </row>
@@ -4574,7 +5129,7 @@
       </c>
       <c r="C38" s="146"/>
       <c r="D38" s="147" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="E38" s="148"/>
     </row>
@@ -4584,7 +5139,7 @@
       </c>
       <c r="C39" s="146"/>
       <c r="D39" s="147" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E39" s="148"/>
     </row>
@@ -4595,7 +5150,7 @@
       <c r="C40" s="146"/>
       <c r="D40" s="147">
         <f>D45*D47</f>
-        <v>210000</v>
+        <v>490000</v>
       </c>
       <c r="E40" s="148"/>
     </row>
@@ -4614,8 +5169,8 @@
         <v>134</v>
       </c>
       <c r="C42" s="146"/>
-      <c r="D42" s="152">
-        <v>43196</v>
+      <c r="D42" s="153">
+        <v>43251</v>
       </c>
       <c r="E42" s="148"/>
     </row>
@@ -4625,7 +5180,7 @@
       </c>
       <c r="C43" s="146"/>
       <c r="D43" s="147">
-        <v>14280</v>
+        <v>3625</v>
       </c>
       <c r="E43" s="148"/>
     </row>
@@ -4635,7 +5190,7 @@
       </c>
       <c r="C44" s="146"/>
       <c r="D44" s="147">
-        <v>13750</v>
+        <v>3500</v>
       </c>
       <c r="E44" s="148"/>
     </row>
@@ -4645,7 +5200,7 @@
       </c>
       <c r="C45" s="146"/>
       <c r="D45" s="147">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E45" s="148"/>
     </row>
@@ -4682,104 +5237,135 @@
     <row r="49" ht="11.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4804,135 +5390,104 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4943,10 +5498,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -5107,12 +5662,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E33" ca="1" si="0">TODAY()</f>
-        <v>43173</v>
+        <f t="shared" ref="E8:E24" ca="1" si="0">TODAY()</f>
+        <v>43174</v>
       </c>
       <c r="F8" s="21">
         <f ca="1">E8+H8</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -5132,7 +5687,7 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-179.22359816514358</v>
+        <v>-187.44043195400991</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
@@ -5141,11 +5696,11 @@
       </c>
       <c r="O8" s="24">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>179.22359816514358</v>
+        <v>187.44043195400991</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3735</v>
+        <v>3752</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -5159,15 +5714,15 @@
       </c>
       <c r="T8" s="26">
         <f>O8/P8</f>
-        <v>4.7984899107133487E-2</v>
+        <v>4.9957471203094322E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.47692273222992299</v>
+        <v>-0.48975640320350067</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-6.9356988315655599</v>
+        <v>-6.9755101225795215</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -5183,11 +5738,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">E9+H9</f>
-        <v>43345</v>
+        <v>43346</v>
       </c>
       <c r="G9" s="10">
         <v>62.9</v>
@@ -5206,7 +5761,7 @@
         <v>0.252</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -5256,11 +5811,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">E10+H10</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="G10" s="10">
         <v>100</v>
@@ -5332,11 +5887,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">E11+H11</f>
-        <v>43234</v>
+        <v>43235</v>
       </c>
       <c r="G11" s="10">
         <v>100</v>
@@ -5432,42 +5987,42 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:F18" ca="1" si="1">E13+H13</f>
+        <f t="shared" ref="F13" ca="1" si="1">E13+H13</f>
         <v>43251</v>
       </c>
       <c r="G13" s="10">
         <v>3500</v>
       </c>
       <c r="H13" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" ref="I13:I18" si="2">(H13)/365</f>
-        <v>0.21369863013698631</v>
+        <f t="shared" ref="I13" si="2">(H13)/365</f>
+        <v>0.21095890410958903</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <v>0.22500000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-94.577072935255956</v>
+        <v>-96.763245722838747</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" ref="N13:N18" si="3">M13/10000*I13*P13</f>
+        <f t="shared" ref="N13" si="3">M13/10000*I13*P13</f>
         <v>0</v>
       </c>
       <c r="O13" s="13">
-        <f t="shared" ref="O13:O18" si="4">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>94.577072935255956</v>
+        <f t="shared" ref="O13" si="4">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
+        <v>96.763245722838747</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
@@ -5477,125 +6032,125 @@
         <v>85</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" ref="R13:R18" si="5">IF(S13="中金买入",1,-1)</f>
+        <f t="shared" ref="R13" si="5">IF(S13="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" ref="T13:T18" si="6">O13/P13</f>
-        <v>2.6119048035143869E-2</v>
+        <f t="shared" ref="T13" si="6">O13/P13</f>
+        <v>2.6722796388522162E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.35092666876153089</v>
+        <v>0.35250781082822868</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-6.1884994015307484</v>
+        <v>-6.1588666764054096</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1">
       <c r="A14" s="42"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14" ca="1" si="7">E14+H14</f>
+        <v>43311</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="10">
+        <v>137</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" ref="I14" si="8">(H14)/365</f>
+        <v>0.37534246575342467</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="L14" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>-19.431636885872422</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" ref="N14" si="9">M14/10000*I14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" ref="O14" si="10">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
+        <v>19.431636885872422</v>
+      </c>
+      <c r="P14" s="11">
+        <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
+        <v>3621</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" ref="R14" si="11">IF(S14="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" ref="T14" si="12">O14/P14</f>
+        <v>5.3663730698349683E-3</v>
+      </c>
+      <c r="U14" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>7.93209176521259E-2</v>
+      </c>
+      <c r="V14" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>-3.2685912750386308</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1">
       <c r="A15" s="42"/>
-      <c r="B15" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43173</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15:F16" ca="1" si="7">E15+H15</f>
-        <v>43265</v>
-      </c>
-      <c r="G15" s="10">
-        <v>3600</v>
-      </c>
-      <c r="H15" s="10">
-        <v>92</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" ref="I15:I16" si="8">(H15)/365</f>
-        <v>0.25205479452054796</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="L15" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-172.46466323103368</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" ref="N15:N16" si="9">M15/10000*I15*P15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" ref="O15:O16" si="10">IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
-        <v>172.46466323103368</v>
-      </c>
-      <c r="P15" s="11">
-        <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>3621</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" ref="R15:R16" si="11">IF(S15="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="14">
-        <f t="shared" ref="T15:T16" si="12">O15/P15</f>
-        <v>4.7629014976811289E-2</v>
-      </c>
-      <c r="U15" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.5402601629612036</v>
-      </c>
-      <c r="V15" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-7.1740388461995508</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1">
       <c r="A16" s="42"/>
@@ -5610,21 +6165,21 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>43357</v>
+        <f t="shared" ref="F16:F17" ca="1" si="13">E16+H16</f>
+        <v>43266</v>
       </c>
       <c r="G16" s="10">
         <v>3600</v>
       </c>
       <c r="H16" s="10">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="8"/>
-        <v>0.50410958904109593</v>
+        <f t="shared" ref="I16:I17" si="14">(H16)/365</f>
+        <v>0.25205479452054796</v>
       </c>
       <c r="J16" s="12">
         <v>0</v>
@@ -5634,18 +6189,18 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-238.09794153228245</v>
+        <v>-172.46466323103368</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N16:N17" si="15">M16/10000*I16*P16</f>
         <v>0</v>
       </c>
       <c r="O16" s="13">
-        <f t="shared" si="10"/>
-        <v>238.09794153228245</v>
+        <f t="shared" ref="O16:O17" si="16">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
+        <v>172.46466323103368</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
@@ -5655,48 +6210,101 @@
         <v>39</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="R16:R17" si="17">IF(S16="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T16" s="14">
-        <f t="shared" si="12"/>
-        <v>6.5754747730539201E-2</v>
+        <f t="shared" ref="T16:T17" si="18">O16/P16</f>
+        <v>4.7629014976811289E-2</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-0.54080645529666072</v>
+        <v>-0.5402601629612036</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-10.085203300335934</v>
+        <v>-7.1740388461995508</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="10.5" customHeight="1">
       <c r="A17" s="42"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>43358</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3600</v>
+      </c>
+      <c r="H17" s="10">
+        <v>184</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="14"/>
+        <v>0.50410958904109593</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>-238.09794153228245</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="16"/>
+        <v>238.09794153228245</v>
+      </c>
+      <c r="P17" s="11">
+        <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
+        <v>3621</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="18"/>
+        <v>6.5754747730539201E-2</v>
+      </c>
+      <c r="U17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>-0.54080645529666072</v>
+      </c>
+      <c r="V17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>-10.085203300335934</v>
+      </c>
     </row>
     <row r="18" spans="1:22" ht="10.5" customHeight="1">
       <c r="A18" s="42"/>
@@ -5722,149 +6330,449 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" ht="10.5" customHeight="1">
       <c r="A19" s="42"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
+      <c r="B19" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19" ca="1" si="19">E19+H19</f>
+        <v>43206</v>
+      </c>
+      <c r="G19" s="11">
+        <f>P19</f>
+        <v>9005</v>
+      </c>
+      <c r="H19" s="10">
+        <v>32</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" ref="I19" si="20">(H19)/365</f>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L19" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
+        <v>-180.49447467874597</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13">
+        <f t="shared" ref="N19" si="21">M19/10000*I19*P19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" ref="O19" si="22">IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
+        <v>180.49447467874597</v>
+      </c>
+      <c r="P19" s="11">
+        <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
+        <v>9005</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" ref="R19" si="23">IF(S19="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" ref="T19" si="24">O19/P19</f>
+        <v>2.0043806183092278E-2</v>
+      </c>
+      <c r="U19" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
+        <v>-0.50914595885842573</v>
+      </c>
+      <c r="V19" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
+        <v>-10.615076596195195</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="10.5" customHeight="1">
       <c r="A20" s="42"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20" ca="1" si="25">E20+H20</f>
+        <v>43266</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" ref="G20:G24" si="26">P20</f>
+        <v>9005</v>
+      </c>
+      <c r="H20" s="10">
+        <v>92</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20" si="27">(H20)/365</f>
+        <v>0.25205479452054796</v>
+      </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="L20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>-322.90642794743144</v>
+      </c>
       <c r="M20" s="15"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+      <c r="N20" s="13">
+        <f t="shared" ref="N20" si="28">M20/10000*I20*P20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" ref="O20" si="29">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
+        <v>322.90642794743144</v>
+      </c>
+      <c r="P20" s="11">
+        <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
+        <v>9005</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" ref="R20" si="30">IF(S20="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" ref="T20" si="31">O20/P20</f>
+        <v>3.585857056606679E-2</v>
+      </c>
+      <c r="U20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>-0.51541507982619805</v>
+      </c>
+      <c r="V20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>-17.927022014117938</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="10.5" customHeight="1">
       <c r="A21" s="42"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:F23" ca="1" si="32">E21+H21</f>
+        <v>43327</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="26"/>
+        <v>9005</v>
+      </c>
+      <c r="H21" s="10">
+        <v>153</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" ref="I21:I23" si="33">(H21)/365</f>
+        <v>0.41917808219178082</v>
+      </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L21" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
+        <v>-437.95750501070597</v>
+      </c>
       <c r="M21" s="15"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
+      <c r="N21" s="13">
+        <f t="shared" ref="N21:N23" si="34">M21/10000*I21*P21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" ref="O21:O23" si="35">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
+        <v>437.95750501070597</v>
+      </c>
+      <c r="P21" s="11">
+        <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
+        <v>9005</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" ref="R21:R23" si="36">IF(S21="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" ref="T21:T23" si="37">O21/P21</f>
+        <v>4.8634925598079505E-2</v>
+      </c>
+      <c r="U21" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
+        <v>-0.52014320408488857</v>
+      </c>
+      <c r="V21" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
+        <v>-23.021302423777797</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="10.5" customHeight="1">
       <c r="A22" s="42"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>43206</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="26"/>
+        <v>53210</v>
+      </c>
+      <c r="H22" s="10">
+        <v>32</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="33"/>
+        <v>8.7671232876712329E-2</v>
+      </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="L22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>-1129.2536036106976</v>
+      </c>
       <c r="M22" s="15"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="N22" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="35"/>
+        <v>1129.2536036106976</v>
+      </c>
+      <c r="P22" s="11">
+        <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
+        <v>53210</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="37"/>
+        <v>2.1222582289244458E-2</v>
+      </c>
+      <c r="U22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>-0.50973534689546796</v>
+      </c>
+      <c r="V22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>-62.721439363753234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="10.5" customHeight="1">
       <c r="A23" s="42"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
+      <c r="B23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>43266</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="26"/>
+        <v>53210</v>
+      </c>
+      <c r="H23" s="10">
+        <v>92</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="33"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-2013.9582204076833</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="35"/>
+        <v>2013.9582204076833</v>
+      </c>
+      <c r="P23" s="11">
+        <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
+        <v>53210</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="37"/>
+        <v>3.7849243007097973E-2</v>
+      </c>
+      <c r="U23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-0.51641041645780206</v>
+      </c>
+      <c r="V23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-105.91734005943363</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="10.5" customHeight="1">
       <c r="A24" s="42"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43174</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24" ca="1" si="38">E24+H24</f>
+        <v>43357</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="26"/>
+        <v>53210</v>
+      </c>
+      <c r="H24" s="10">
+        <v>183</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" ref="I24" si="39">(H24)/365</f>
+        <v>0.50136986301369868</v>
+      </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="13"/>
+      <c r="K24" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>-2825.2297665300721</v>
+      </c>
       <c r="M24" s="15"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
+      <c r="N24" s="13">
+        <f t="shared" ref="N24" si="40">M24/10000*I24*P24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <f>IF(L24&lt;=0,ABS(L24)+N24,L24-N24)</f>
+        <v>2825.2297665300721</v>
+      </c>
+      <c r="P24" s="11">
+        <f>RTD("wdf.rtq",,D24,"LastPrice")</f>
+        <v>53210</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" ref="R24" si="41">IF(S24="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" ref="T24" si="42">O24/P24</f>
+        <v>5.3095842257659689E-2</v>
+      </c>
+      <c r="U24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>-0.52155927587591577</v>
+      </c>
+      <c r="V24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>-148.47185322024052</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="10.5" customHeight="1">
       <c r="A25" s="42"/>
@@ -5883,7 +6791,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="10"/>
+      <c r="Q25" s="170"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="14"/>
@@ -5914,103 +6822,103 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" ht="15">
+    <row r="27" spans="1:22" ht="10.5" customHeight="1">
       <c r="A27" s="42"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-    </row>
-    <row r="28" spans="1:22" ht="10.5" customHeight="1">
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="1:22" ht="15">
       <c r="A28" s="42"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+    </row>
+    <row r="29" spans="1:22" ht="10.5" customHeight="1">
       <c r="A29" s="42"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="110"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-    </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1">
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="42"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-    </row>
-    <row r="31" spans="1:22" ht="10.5" customHeight="1">
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+    </row>
+    <row r="31" spans="1:22" ht="12.75" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="13"/>
       <c r="C31" s="10"/>
@@ -6082,13 +6990,37 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22">
-      <c r="H34" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="P36" s="144"/>
+    <row r="34" spans="1:22" ht="10.5" customHeight="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="H35" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="P37" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6104,19 +7036,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S33</xm:sqref>
+          <xm:sqref>S8:S34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q33</xm:sqref>
+          <xm:sqref>Q8:Q34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C33</xm:sqref>
+          <xm:sqref>C8:C34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6129,7 +7061,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -6290,11 +7222,11 @@
       </c>
       <c r="E8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F8" s="54">
         <f ca="1">E8+H8</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G8" s="52">
         <v>100</v>
@@ -6358,11 +7290,11 @@
       </c>
       <c r="E9" s="62">
         <f ca="1">E8</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G9" s="60">
         <v>100</v>
@@ -6429,11 +7361,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">E9</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G10" s="68" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -6493,15 +7425,15 @@
         <v>160</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F11" s="54">
         <f ca="1">E11+H11</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G11" s="52">
         <v>3300</v>
@@ -6567,11 +7499,11 @@
       </c>
       <c r="E12" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F12" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G12" s="60">
         <v>4000</v>
@@ -6639,11 +7571,11 @@
       </c>
       <c r="E13" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F13" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G13" s="68" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
@@ -6703,15 +7635,15 @@
         <v>160</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F14" s="54">
         <f ca="1">E14+H14</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G14" s="52">
         <v>3400</v>
@@ -6777,11 +7709,11 @@
       </c>
       <c r="E15" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F15" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G15" s="60">
         <v>4000</v>
@@ -6849,11 +7781,11 @@
       </c>
       <c r="E16" s="70">
         <f t="shared" ca="1" si="3"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F16" s="70">
         <f t="shared" ca="1" si="3"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G16" s="68" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -6913,15 +7845,15 @@
         <v>160</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F17" s="54">
         <f ca="1">E17+H17</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G17" s="52">
         <v>3500</v>
@@ -6987,11 +7919,11 @@
       </c>
       <c r="E18" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F18" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G18" s="60">
         <v>4000</v>
@@ -7059,11 +7991,11 @@
       </c>
       <c r="E19" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F19" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G19" s="68" t="str">
         <f>G17 &amp; "|" &amp; G18</f>
@@ -7123,15 +8055,15 @@
         <v>160</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E20" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F20" s="54">
         <f ca="1">E20+H20</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G20" s="52">
         <v>3300</v>
@@ -7197,11 +8129,11 @@
       </c>
       <c r="E21" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F21" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G21" s="60">
         <v>4000</v>
@@ -7269,11 +8201,11 @@
       </c>
       <c r="E22" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F22" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G22" s="68" t="str">
         <f>G20 &amp; "|" &amp; G21</f>
@@ -7333,15 +8265,15 @@
         <v>160</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E23" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F23" s="54">
         <f ca="1">E23+H23</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G23" s="52">
         <v>3400</v>
@@ -7407,11 +8339,11 @@
       </c>
       <c r="E24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G24" s="60">
         <v>4000</v>
@@ -7479,11 +8411,11 @@
       </c>
       <c r="E25" s="70">
         <f t="shared" ca="1" si="6"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F25" s="70">
         <f t="shared" ca="1" si="6"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G25" s="68" t="str">
         <f>G23 &amp; "|" &amp; G24</f>
@@ -7543,15 +8475,15 @@
         <v>160</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F26" s="54">
         <f ca="1">E26+H26</f>
-        <v>43357</v>
+        <v>43358</v>
       </c>
       <c r="G26" s="52">
         <v>3600</v>
@@ -7617,11 +8549,11 @@
       </c>
       <c r="E27" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F27" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43357</v>
+        <v>43358</v>
       </c>
       <c r="G27" s="60">
         <v>4000</v>
@@ -7689,11 +8621,11 @@
       </c>
       <c r="E28" s="70">
         <f t="shared" ca="1" si="7"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F28" s="70">
         <f t="shared" ca="1" si="7"/>
-        <v>43357</v>
+        <v>43358</v>
       </c>
       <c r="G28" s="68" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -7753,15 +8685,15 @@
         <v>160</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F29" s="54">
         <f ca="1">E29+H29</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G29" s="52">
         <v>92</v>
@@ -7826,11 +8758,11 @@
       </c>
       <c r="E30" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F30" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G30" s="60">
         <v>105</v>
@@ -7898,11 +8830,11 @@
       </c>
       <c r="E31" s="70">
         <f t="shared" ca="1" si="10"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F31" s="70">
         <f t="shared" ca="1" si="10"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G31" s="68" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -7964,15 +8896,15 @@
         <v>160</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E32" s="54">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F32" s="54">
         <f ca="1">E32+H32</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G32" s="52">
         <v>95</v>
@@ -8037,11 +8969,11 @@
       </c>
       <c r="E33" s="62">
         <f t="shared" ca="1" si="11"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F33" s="62">
         <f t="shared" ca="1" si="11"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G33" s="60">
         <v>102.5</v>
@@ -8109,11 +9041,11 @@
       </c>
       <c r="E34" s="70">
         <f t="shared" ca="1" si="12"/>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F34" s="70">
         <f t="shared" ca="1" si="12"/>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="G34" s="68" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -8505,7 +9437,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3735</v>
+        <v>3752</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -8522,11 +9454,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -8543,30 +9475,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-42.067445412752321</v>
+        <v>-44.930273075284042</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.4558904109589044</v>
+        <v>2.467068493150685</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>44.523335823711221</v>
+        <v>47.397341568434726</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.1920571840351063E-2</v>
+        <v>1.2632553722930364E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.15464904927142697</v>
+        <v>0.15945540159485461</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.85028264771834117</v>
+        <v>0.79968278150695937</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -8608,11 +9540,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -10439,18 +11371,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3735</v>
+        <v>3752</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -10464,30 +11396,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>100.50401224729285</v>
+        <v>108.17498676479181</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.4558904109589044</v>
+        <v>2.467068493150685</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>102.95990265825175</v>
+        <v>110.6420552579425</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>2.756623899819324E-2</v>
+        <v>2.948882069774587E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.44079235095750846</v>
+        <v>0.46168178716925468</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.221725086733386</v>
+        <v>4.268307061478481</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -10519,11 +11451,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10589,11 +11521,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43203</v>
+        <v>43204</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20180313.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180313.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="216">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,10 +765,6 @@
     <t>pp1805</t>
   </si>
   <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i1809</t>
   </si>
   <si>
@@ -788,14 +784,14 @@
     <t>pp1809</t>
   </si>
   <si>
-    <t>pp1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cu1810</t>
   </si>
   <si>
-    <t>cu1810</t>
+    <t>hc1810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1805</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,14 +799,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="###,###,##0.0"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,22 +1055,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,11 +1139,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1357,19 +1333,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1533,14 +1503,6 @@
     <xf numFmtId="14" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1589,16 +1551,12 @@
     <xf numFmtId="14" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1620,17 +1578,14 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1641,28 +1596,31 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1674,13 +1632,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1700,47 +1655,35 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>9005</v>
+        <v>3648</v>
         <stp/>
-        <stp>pp1809</stp>
+        <stp>rb1805</stp>
         <stp>LastPrice</stp>
-        <tr r="P19" s="1"/>
-        <tr r="P20" s="1"/>
-        <tr r="P21" s="1"/>
+        <tr r="P15" s="1"/>
+        <tr r="P16" s="1"/>
       </tp>
       <tp>
-        <v>53210</v>
-        <stp/>
-        <stp>cu1810</stp>
-        <stp>LastPrice</stp>
-        <tr r="P23" s="1"/>
-        <tr r="P24" s="1"/>
-        <tr r="P22" s="1"/>
-      </tp>
-      <tp>
-        <v>3621</v>
+        <v>3470</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
-        <tr r="P11" s="9"/>
-        <tr r="P26" s="9"/>
-        <tr r="P17" s="9"/>
         <tr r="P14" s="9"/>
         <tr r="P20" s="9"/>
         <tr r="P23" s="9"/>
-        <tr r="P17" s="1"/>
-        <tr r="P16" s="1"/>
+        <tr r="P17" s="9"/>
+        <tr r="P11" s="9"/>
+        <tr r="P26" s="9"/>
         <tr r="P13" s="1"/>
         <tr r="P14" s="1"/>
       </tp>
       <tp>
-        <v>3752</v>
+        <v>3648</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="H8" s="8"/>
         <tr r="H8" s="7"/>
-        <tr r="H8" s="8"/>
       </tp>
     </main>
   </volType>
@@ -2037,11 +1980,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
@@ -2063,20 +2006,20 @@
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="145" t="s">
+    <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-    </row>
-    <row r="2" spans="2:18" ht="12" thickTop="1"/>
-    <row r="3" spans="2:18" ht="13.5">
-      <c r="I3" s="143" t="s">
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+    </row>
+    <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="I3" s="134" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="100" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="101" t="s">
         <v>160</v>
       </c>
@@ -2180,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="101" t="s">
         <v>160</v>
       </c>
@@ -2233,7 +2176,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" s="101" t="s">
         <v>160</v>
       </c>
@@ -2319,7 +2262,7 @@
       <c r="M9" s="101">
         <v>0</v>
       </c>
-      <c r="N9" s="126">
+      <c r="N9" s="118">
         <v>82.749480015912013</v>
       </c>
       <c r="O9" s="101">
@@ -2335,7 +2278,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="101" t="s">
         <v>160</v>
       </c>
@@ -2370,7 +2313,7 @@
       <c r="M10" s="101">
         <v>0</v>
       </c>
-      <c r="N10" s="126">
+      <c r="N10" s="118">
         <v>104.91801880194794</v>
       </c>
       <c r="O10" s="101">
@@ -2386,7 +2329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="101" t="s">
         <v>160</v>
       </c>
@@ -2421,7 +2364,7 @@
       <c r="M11" s="101">
         <v>0</v>
       </c>
-      <c r="N11" s="126">
+      <c r="N11" s="118">
         <v>130.42375876594815</v>
       </c>
       <c r="O11" s="101">
@@ -2437,7 +2380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
       <c r="D12" s="102"/>
@@ -2450,13 +2393,13 @@
       <c r="K12" s="101"/>
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
-      <c r="N12" s="126"/>
+      <c r="N12" s="118"/>
       <c r="O12" s="101"/>
       <c r="P12" s="101"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="101"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
         <v>181</v>
@@ -2505,113 +2448,113 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="137" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="138">
+      <c r="D14" s="130">
         <v>43172</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="130">
         <v>43210</v>
       </c>
-      <c r="F14" s="137">
+      <c r="F14" s="129">
         <v>4000</v>
       </c>
-      <c r="G14" s="137">
+      <c r="G14" s="129">
         <v>38</v>
       </c>
-      <c r="H14" s="137">
+      <c r="H14" s="129">
         <v>9.8630136986301367E-2</v>
       </c>
-      <c r="I14" s="137">
+      <c r="I14" s="129">
         <v>0</v>
       </c>
-      <c r="J14" s="137">
+      <c r="J14" s="129">
         <v>0.155</v>
       </c>
-      <c r="K14" s="137">
+      <c r="K14" s="129">
         <v>19.562648233948153</v>
       </c>
-      <c r="L14" s="137">
+      <c r="L14" s="129">
         <v>0</v>
       </c>
-      <c r="M14" s="137">
+      <c r="M14" s="129">
         <v>0</v>
       </c>
-      <c r="N14" s="140">
+      <c r="N14" s="131">
         <v>19.562648233948153</v>
       </c>
-      <c r="O14" s="137">
+      <c r="O14" s="129">
         <v>3831</v>
       </c>
-      <c r="P14" s="137" t="s">
+      <c r="P14" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="137">
+      <c r="Q14" s="129">
         <v>1</v>
       </c>
-      <c r="R14" s="137" t="s">
+      <c r="R14" s="129" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="137" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="130">
         <v>43172</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="130">
         <v>43210</v>
       </c>
-      <c r="F15" s="137">
+      <c r="F15" s="129">
         <v>3950</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="129">
         <v>38</v>
       </c>
-      <c r="H15" s="137">
+      <c r="H15" s="129">
         <v>9.8630136986301367E-2</v>
       </c>
-      <c r="I15" s="137">
+      <c r="I15" s="129">
         <v>0</v>
       </c>
-      <c r="J15" s="137">
+      <c r="J15" s="129">
         <v>0.155</v>
       </c>
-      <c r="K15" s="137">
+      <c r="K15" s="129">
         <v>30.425281860261634</v>
       </c>
-      <c r="L15" s="137">
+      <c r="L15" s="129">
         <v>0</v>
       </c>
-      <c r="M15" s="137">
+      <c r="M15" s="129">
         <v>0</v>
       </c>
-      <c r="N15" s="140">
+      <c r="N15" s="131">
         <v>30.425281860261634</v>
       </c>
-      <c r="O15" s="137">
+      <c r="O15" s="129">
         <v>3831</v>
       </c>
-      <c r="P15" s="137" t="s">
+      <c r="P15" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="137">
+      <c r="Q15" s="129">
         <v>1</v>
       </c>
-      <c r="R15" s="137" t="s">
+      <c r="R15" s="129" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B16" s="41"/>
       <c r="C16" s="41" t="s">
         <v>181</v>
@@ -2660,60 +2603,60 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="137" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="130">
         <v>43172</v>
       </c>
-      <c r="E17" s="138">
+      <c r="E17" s="130">
         <v>43262</v>
       </c>
-      <c r="F17" s="137">
+      <c r="F17" s="129">
         <v>12500</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="129">
         <v>90</v>
       </c>
-      <c r="H17" s="137">
+      <c r="H17" s="129">
         <v>0.24657534246575341</v>
       </c>
-      <c r="I17" s="137">
+      <c r="I17" s="129">
         <v>0</v>
       </c>
-      <c r="J17" s="137">
+      <c r="J17" s="129">
         <v>0.19</v>
       </c>
-      <c r="K17" s="137">
+      <c r="K17" s="129">
         <v>-68.407402851303004</v>
       </c>
-      <c r="L17" s="137">
+      <c r="L17" s="129">
         <v>0</v>
       </c>
-      <c r="M17" s="137">
+      <c r="M17" s="129">
         <v>0</v>
       </c>
-      <c r="N17" s="140">
+      <c r="N17" s="131">
         <v>68.407402851303004</v>
       </c>
-      <c r="O17" s="137">
+      <c r="O17" s="129">
         <v>14010</v>
       </c>
-      <c r="P17" s="137" t="s">
+      <c r="P17" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="137">
+      <c r="Q17" s="129">
         <v>-1</v>
       </c>
-      <c r="R17" s="137" t="s">
+      <c r="R17" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="41"/>
       <c r="C18" s="41" t="s">
         <v>181</v>
@@ -2762,219 +2705,219 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="137" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="130">
         <v>43172</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="130">
         <v>43203</v>
       </c>
-      <c r="F19" s="137">
+      <c r="F19" s="129">
         <v>8800</v>
       </c>
-      <c r="G19" s="137">
+      <c r="G19" s="129">
         <v>31</v>
       </c>
-      <c r="H19" s="137">
+      <c r="H19" s="129">
         <v>8.4931506849315067E-2</v>
       </c>
-      <c r="I19" s="137">
+      <c r="I19" s="129">
         <v>0</v>
       </c>
-      <c r="J19" s="137">
+      <c r="J19" s="129">
         <v>0.1875</v>
       </c>
-      <c r="K19" s="137">
+      <c r="K19" s="129">
         <v>-236.0723801769891</v>
       </c>
-      <c r="L19" s="137">
+      <c r="L19" s="129">
         <v>70</v>
       </c>
-      <c r="M19" s="137">
+      <c r="M19" s="129">
         <v>5.2805315068493144</v>
       </c>
-      <c r="N19" s="140">
+      <c r="N19" s="131">
         <v>241.35291168383841</v>
       </c>
-      <c r="O19" s="137">
+      <c r="O19" s="129">
         <v>8882</v>
       </c>
-      <c r="P19" s="137" t="s">
+      <c r="P19" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="137">
+      <c r="Q19" s="129">
         <v>-1</v>
       </c>
-      <c r="R19" s="137" t="s">
+      <c r="R19" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="137" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="130">
         <v>43172</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="130">
         <v>43203</v>
       </c>
-      <c r="F20" s="137">
+      <c r="F20" s="129">
         <v>8900</v>
       </c>
-      <c r="G20" s="137">
+      <c r="G20" s="129">
         <v>31</v>
       </c>
-      <c r="H20" s="137">
+      <c r="H20" s="129">
         <v>8.4931506849315067E-2</v>
       </c>
-      <c r="I20" s="137">
+      <c r="I20" s="129">
         <v>0</v>
       </c>
-      <c r="J20" s="137">
+      <c r="J20" s="129">
         <v>0.1875</v>
       </c>
-      <c r="K20" s="137">
+      <c r="K20" s="129">
         <v>-184.6140002711727</v>
       </c>
-      <c r="L20" s="137">
+      <c r="L20" s="129">
         <v>70</v>
       </c>
-      <c r="M20" s="137">
+      <c r="M20" s="129">
         <v>5.2805315068493144</v>
       </c>
-      <c r="N20" s="140">
+      <c r="N20" s="131">
         <v>189.89453177802201</v>
       </c>
-      <c r="O20" s="137">
+      <c r="O20" s="129">
         <v>8882</v>
       </c>
-      <c r="P20" s="137" t="s">
+      <c r="P20" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="137">
+      <c r="Q20" s="129">
         <v>-1</v>
       </c>
-      <c r="R20" s="137" t="s">
+      <c r="R20" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="137" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="138">
+      <c r="D21" s="130">
         <v>43172</v>
       </c>
-      <c r="E21" s="138">
+      <c r="E21" s="130">
         <v>43203</v>
       </c>
-      <c r="F21" s="137">
+      <c r="F21" s="129">
         <v>9000</v>
       </c>
-      <c r="G21" s="137">
+      <c r="G21" s="129">
         <v>31</v>
       </c>
-      <c r="H21" s="137">
+      <c r="H21" s="129">
         <v>8.4931506849315067E-2</v>
       </c>
-      <c r="I21" s="137">
+      <c r="I21" s="129">
         <v>0</v>
       </c>
-      <c r="J21" s="137">
+      <c r="J21" s="129">
         <v>0.1875</v>
       </c>
-      <c r="K21" s="137">
+      <c r="K21" s="129">
         <v>-141.29988107518739</v>
       </c>
-      <c r="L21" s="137">
+      <c r="L21" s="129">
         <v>70</v>
       </c>
-      <c r="M21" s="137">
+      <c r="M21" s="129">
         <v>5.2805315068493144</v>
       </c>
-      <c r="N21" s="140">
+      <c r="N21" s="131">
         <v>146.5804125820367</v>
       </c>
-      <c r="O21" s="137">
+      <c r="O21" s="129">
         <v>8882</v>
       </c>
-      <c r="P21" s="137" t="s">
+      <c r="P21" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="137">
+      <c r="Q21" s="129">
         <v>-1</v>
       </c>
-      <c r="R21" s="137" t="s">
+      <c r="R21" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="137" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="138">
+      <c r="D22" s="130">
         <v>43172</v>
       </c>
-      <c r="E22" s="138">
+      <c r="E22" s="130">
         <v>43203</v>
       </c>
-      <c r="F22" s="137">
+      <c r="F22" s="129">
         <v>9100</v>
       </c>
-      <c r="G22" s="137">
+      <c r="G22" s="129">
         <v>31</v>
       </c>
-      <c r="H22" s="137">
+      <c r="H22" s="129">
         <v>8.4931506849315067E-2</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="129">
         <v>0</v>
       </c>
-      <c r="J22" s="137">
+      <c r="J22" s="129">
         <v>0.1875</v>
       </c>
-      <c r="K22" s="137">
+      <c r="K22" s="129">
         <v>-105.77307588048689</v>
       </c>
-      <c r="L22" s="137">
+      <c r="L22" s="129">
         <v>70</v>
       </c>
-      <c r="M22" s="137">
+      <c r="M22" s="129">
         <v>5.2805315068493144</v>
       </c>
-      <c r="N22" s="140">
+      <c r="N22" s="131">
         <v>111.0536073873362</v>
       </c>
-      <c r="O22" s="137">
+      <c r="O22" s="129">
         <v>8882</v>
       </c>
-      <c r="P22" s="137" t="s">
+      <c r="P22" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="137">
+      <c r="Q22" s="129">
         <v>-1</v>
       </c>
-      <c r="R22" s="137" t="s">
+      <c r="R22" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
         <v>181</v>
@@ -3023,60 +2966,60 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="137" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="138">
+      <c r="D24" s="130">
         <v>43172</v>
       </c>
-      <c r="E24" s="138">
+      <c r="E24" s="130">
         <v>43262</v>
       </c>
-      <c r="F24" s="137">
+      <c r="F24" s="129">
         <v>12000</v>
       </c>
-      <c r="G24" s="137">
+      <c r="G24" s="129">
         <v>90</v>
       </c>
-      <c r="H24" s="137">
+      <c r="H24" s="129">
         <v>0.24657534246575341</v>
       </c>
-      <c r="I24" s="137">
+      <c r="I24" s="129">
         <v>0</v>
       </c>
-      <c r="J24" s="137">
+      <c r="J24" s="129">
         <v>0.18</v>
       </c>
-      <c r="K24" s="137">
+      <c r="K24" s="129">
         <v>-19.455144995082719</v>
       </c>
-      <c r="L24" s="137">
+      <c r="L24" s="129">
         <v>0</v>
       </c>
-      <c r="M24" s="137">
+      <c r="M24" s="129">
         <v>0</v>
       </c>
-      <c r="N24" s="140">
+      <c r="N24" s="131">
         <v>19.455144995082719</v>
       </c>
-      <c r="O24" s="137">
+      <c r="O24" s="129">
         <v>14010</v>
       </c>
-      <c r="P24" s="137" t="s">
+      <c r="P24" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="Q24" s="137">
+      <c r="Q24" s="129">
         <v>-1</v>
       </c>
-      <c r="R24" s="137" t="s">
+      <c r="R24" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26" s="41"/>
       <c r="C26" s="41" t="s">
         <v>181</v>
@@ -3125,60 +3068,60 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="137" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="138">
+      <c r="D27" s="130">
         <v>43173</v>
       </c>
-      <c r="E27" s="138">
+      <c r="E27" s="130">
         <v>43251</v>
       </c>
-      <c r="F27" s="137">
+      <c r="F27" s="129">
         <v>3500</v>
       </c>
-      <c r="G27" s="137">
+      <c r="G27" s="129">
         <v>78</v>
       </c>
-      <c r="H27" s="137">
+      <c r="H27" s="129">
         <v>0.21369863013698631</v>
       </c>
-      <c r="I27" s="137">
+      <c r="I27" s="129">
         <v>0</v>
       </c>
-      <c r="J27" s="137">
+      <c r="J27" s="129">
         <v>0.22500000000000001</v>
       </c>
-      <c r="K27" s="137">
+      <c r="K27" s="129">
         <v>-101.42329162416991</v>
       </c>
-      <c r="L27" s="137">
+      <c r="L27" s="129">
         <v>0</v>
       </c>
-      <c r="M27" s="137">
+      <c r="M27" s="129">
         <v>0</v>
       </c>
-      <c r="N27" s="140">
+      <c r="N27" s="131">
         <v>101.42329162416991</v>
       </c>
-      <c r="O27" s="137">
+      <c r="O27" s="129">
         <v>3602</v>
       </c>
-      <c r="P27" s="137" t="s">
+      <c r="P27" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="Q27" s="137">
+      <c r="Q27" s="129">
         <v>-1</v>
       </c>
-      <c r="R27" s="137" t="s">
+      <c r="R27" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
       <c r="C28" s="41" t="s">
         <v>181</v>
@@ -3227,97 +3170,97 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="137" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="138">
+      <c r="C29" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="130">
         <v>43173</v>
       </c>
-      <c r="E29" s="138">
+      <c r="E29" s="130">
         <v>43203</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="129" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="129">
+        <v>30</v>
+      </c>
+      <c r="H29" s="129">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129">
+        <v>0.3660793967580851</v>
+      </c>
+      <c r="L29" s="129">
+        <v>50</v>
+      </c>
+      <c r="M29" s="129">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="N29" s="131">
+        <v>0.32498350634712619</v>
+      </c>
+      <c r="O29" s="129">
+        <v>100</v>
+      </c>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="130">
+        <v>43173</v>
+      </c>
+      <c r="E30" s="130">
+        <v>43203</v>
+      </c>
+      <c r="F30" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="137">
+      <c r="G30" s="129">
         <v>30</v>
       </c>
-      <c r="H29" s="137">
+      <c r="H30" s="129">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137">
-        <v>0.3660793967580851</v>
-      </c>
-      <c r="L29" s="137">
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129">
+        <v>0.49604829188830735</v>
+      </c>
+      <c r="L30" s="129">
         <v>50</v>
       </c>
-      <c r="M29" s="137">
+      <c r="M30" s="129">
         <v>4.1095890410958902E-2</v>
       </c>
-      <c r="N29" s="140">
-        <v>0.32498350634712619</v>
-      </c>
-      <c r="O29" s="137">
+      <c r="N30" s="131">
+        <v>0.45495240147734844</v>
+      </c>
+      <c r="O30" s="129">
         <v>100</v>
       </c>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137" t="s">
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="138">
-        <v>43173</v>
-      </c>
-      <c r="E30" s="138">
-        <v>43203</v>
-      </c>
-      <c r="F30" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="137">
-        <v>30</v>
-      </c>
-      <c r="H30" s="137">
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137">
-        <v>0.49604829188830735</v>
-      </c>
-      <c r="L30" s="137">
-        <v>50</v>
-      </c>
-      <c r="M30" s="137">
-        <v>4.1095890410958902E-2</v>
-      </c>
-      <c r="N30" s="140">
-        <v>0.45495240147734844</v>
-      </c>
-      <c r="O30" s="137">
-        <v>100</v>
-      </c>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B31" s="41"/>
       <c r="C31" s="41" t="s">
         <v>181</v>
@@ -3366,113 +3309,113 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="137" t="s">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="138">
+      <c r="C32" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="130">
         <v>43174</v>
       </c>
-      <c r="E32" s="138">
+      <c r="E32" s="130">
         <v>43206</v>
       </c>
-      <c r="F32" s="137">
+      <c r="F32" s="129">
         <v>270</v>
       </c>
-      <c r="G32" s="137">
+      <c r="G32" s="129">
         <v>32</v>
       </c>
-      <c r="H32" s="137">
+      <c r="H32" s="129">
         <v>8.7671232876712329E-2</v>
       </c>
-      <c r="I32" s="137">
+      <c r="I32" s="129">
         <v>0.03</v>
       </c>
-      <c r="J32" s="137">
+      <c r="J32" s="129">
         <v>0.13</v>
       </c>
-      <c r="K32" s="137">
+      <c r="K32" s="129">
         <v>-5.09179079711177</v>
       </c>
-      <c r="L32" s="137">
+      <c r="L32" s="129">
         <v>50</v>
       </c>
-      <c r="M32" s="137">
+      <c r="M32" s="129">
         <v>0.11881643835616439</v>
       </c>
-      <c r="N32" s="140">
+      <c r="N32" s="131">
         <v>5.2106072354679345</v>
       </c>
-      <c r="O32" s="137">
+      <c r="O32" s="129">
         <v>271.05</v>
       </c>
-      <c r="P32" s="137" t="s">
+      <c r="P32" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q32" s="137">
+      <c r="Q32" s="129">
         <v>-1</v>
       </c>
-      <c r="R32" s="137" t="s">
+      <c r="R32" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
-      <c r="B33" s="137" t="s">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="138">
+      <c r="C33" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="130">
         <v>43174</v>
       </c>
-      <c r="E33" s="138">
+      <c r="E33" s="130">
         <v>43235</v>
       </c>
-      <c r="F33" s="137">
+      <c r="F33" s="129">
         <v>270</v>
       </c>
-      <c r="G33" s="137">
+      <c r="G33" s="129">
         <v>61</v>
       </c>
-      <c r="H33" s="137">
+      <c r="H33" s="129">
         <v>0.16712328767123288</v>
       </c>
-      <c r="I33" s="137">
+      <c r="I33" s="129">
         <v>0.03</v>
       </c>
-      <c r="J33" s="137">
+      <c r="J33" s="129">
         <v>0.13</v>
       </c>
-      <c r="K33" s="137">
+      <c r="K33" s="129">
         <v>-7.0124054757578733</v>
       </c>
-      <c r="L33" s="137">
+      <c r="L33" s="129">
         <v>50</v>
       </c>
-      <c r="M33" s="137">
+      <c r="M33" s="129">
         <v>0.2264938356164384</v>
       </c>
-      <c r="N33" s="140">
+      <c r="N33" s="131">
         <v>7.2388993113743121</v>
       </c>
-      <c r="O33" s="137">
+      <c r="O33" s="129">
         <v>271.05</v>
       </c>
-      <c r="P33" s="137" t="s">
+      <c r="P33" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q33" s="137">
+      <c r="Q33" s="129">
         <v>-1</v>
       </c>
-      <c r="R33" s="137" t="s">
+      <c r="R33" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B35" s="41"/>
       <c r="C35" s="41" t="s">
         <v>181</v>
@@ -3521,297 +3464,297 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="137" t="s">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="137" t="s">
+      <c r="C36" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="130">
+        <v>43174</v>
+      </c>
+      <c r="E36" s="130">
+        <v>43206</v>
+      </c>
+      <c r="F36" s="129">
+        <v>9008</v>
+      </c>
+      <c r="G36" s="129">
+        <v>32</v>
+      </c>
+      <c r="H36" s="129">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129">
+        <v>0.17</v>
+      </c>
+      <c r="K36" s="129">
+        <v>-180.55460609729562</v>
+      </c>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129">
+        <v>3.9487123287671233</v>
+      </c>
+      <c r="N36" s="131">
+        <v>184.50331842606275</v>
+      </c>
+      <c r="O36" s="129">
+        <v>9008</v>
+      </c>
+      <c r="P36" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="129">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="130">
+        <v>43174</v>
+      </c>
+      <c r="E37" s="130">
+        <v>43266</v>
+      </c>
+      <c r="F37" s="129">
+        <v>9008</v>
+      </c>
+      <c r="G37" s="129">
+        <v>92</v>
+      </c>
+      <c r="H37" s="129">
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129">
+        <v>0.18</v>
+      </c>
+      <c r="K37" s="129">
+        <v>-323.01400365912923</v>
+      </c>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129">
+        <v>11.35254794520548</v>
+      </c>
+      <c r="N37" s="131">
+        <v>334.36655160433469</v>
+      </c>
+      <c r="O37" s="129">
+        <v>9008</v>
+      </c>
+      <c r="P37" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="129">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="130">
+        <v>43174</v>
+      </c>
+      <c r="E38" s="130">
+        <v>43327</v>
+      </c>
+      <c r="F38" s="129">
+        <v>9008</v>
+      </c>
+      <c r="G38" s="129">
+        <v>153</v>
+      </c>
+      <c r="H38" s="129">
+        <v>0.41917808219178082</v>
+      </c>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129">
+        <v>0.19</v>
+      </c>
+      <c r="K38" s="129">
+        <v>-438.10340978749991</v>
+      </c>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129">
+        <v>0</v>
+      </c>
+      <c r="N38" s="131">
+        <v>438.10340978749991</v>
+      </c>
+      <c r="O38" s="129">
+        <v>9008</v>
+      </c>
+      <c r="P38" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="129">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="138">
+      <c r="D39" s="130">
         <v>43174</v>
       </c>
-      <c r="E36" s="138">
+      <c r="E39" s="130">
         <v>43206</v>
       </c>
-      <c r="F36" s="137">
-        <v>9008</v>
-      </c>
-      <c r="G36" s="137">
+      <c r="F39" s="129">
+        <v>53180</v>
+      </c>
+      <c r="G39" s="129">
         <v>32</v>
       </c>
-      <c r="H36" s="137">
+      <c r="H39" s="129">
         <v>8.7671232876712329E-2</v>
       </c>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137">
-        <v>0.17</v>
-      </c>
-      <c r="K36" s="137">
-        <v>-180.55460609729562</v>
-      </c>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137">
-        <v>3.9487123287671233</v>
-      </c>
-      <c r="N36" s="140">
-        <v>184.50331842606275</v>
-      </c>
-      <c r="O36" s="137">
-        <v>9008</v>
-      </c>
-      <c r="P36" s="137" t="s">
+      <c r="I39" s="129"/>
+      <c r="J39" s="129">
+        <v>0.18</v>
+      </c>
+      <c r="K39" s="129">
+        <v>-1128.6169261420218</v>
+      </c>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129">
+        <v>0</v>
+      </c>
+      <c r="N39" s="131">
+        <v>1128.6169261420218</v>
+      </c>
+      <c r="O39" s="129">
+        <v>53180</v>
+      </c>
+      <c r="P39" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="137">
+      <c r="Q39" s="129">
         <v>-1</v>
       </c>
-      <c r="R36" s="137" t="s">
+      <c r="R39" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="137" t="s">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C40" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="138">
+      <c r="D40" s="130">
         <v>43174</v>
       </c>
-      <c r="E37" s="138">
+      <c r="E40" s="130">
         <v>43266</v>
       </c>
-      <c r="F37" s="137">
-        <v>9008</v>
-      </c>
-      <c r="G37" s="137">
+      <c r="F40" s="129">
+        <v>53180</v>
+      </c>
+      <c r="G40" s="129">
         <v>92</v>
       </c>
-      <c r="H37" s="137">
+      <c r="H40" s="129">
         <v>0.25205479452054796</v>
       </c>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137">
-        <v>0.18</v>
-      </c>
-      <c r="K37" s="137">
-        <v>-323.01400365912923</v>
-      </c>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137">
-        <v>11.35254794520548</v>
-      </c>
-      <c r="N37" s="140">
-        <v>334.36655160433469</v>
-      </c>
-      <c r="O37" s="137">
-        <v>9008</v>
-      </c>
-      <c r="P37" s="137" t="s">
+      <c r="I40" s="129"/>
+      <c r="J40" s="129">
+        <v>0.19</v>
+      </c>
+      <c r="K40" s="129">
+        <v>-2012.822743117471</v>
+      </c>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129">
+        <v>0</v>
+      </c>
+      <c r="N40" s="131">
+        <v>2012.822743117471</v>
+      </c>
+      <c r="O40" s="129">
+        <v>53180</v>
+      </c>
+      <c r="P40" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="137">
+      <c r="Q40" s="129">
         <v>-1</v>
       </c>
-      <c r="R37" s="137" t="s">
+      <c r="R40" s="129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
-      <c r="B38" s="137" t="s">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C41" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="138">
+      <c r="D41" s="130">
         <v>43174</v>
       </c>
-      <c r="E38" s="138">
-        <v>43327</v>
-      </c>
-      <c r="F38" s="137">
-        <v>9008</v>
-      </c>
-      <c r="G38" s="137">
-        <v>153</v>
-      </c>
-      <c r="H38" s="137">
-        <v>0.41917808219178082</v>
-      </c>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137">
+      <c r="E41" s="130">
+        <v>43357</v>
+      </c>
+      <c r="F41" s="129">
+        <v>53180</v>
+      </c>
+      <c r="G41" s="129">
+        <v>183</v>
+      </c>
+      <c r="H41" s="129">
+        <v>0.50136986301369868</v>
+      </c>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129">
         <v>0.19</v>
       </c>
-      <c r="K38" s="137">
-        <v>-438.10340978749991</v>
-      </c>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137">
+      <c r="K41" s="129">
+        <v>-2823.6368912623439</v>
+      </c>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129">
         <v>0</v>
       </c>
-      <c r="N38" s="140">
-        <v>438.10340978749991</v>
-      </c>
-      <c r="O38" s="137">
-        <v>9008</v>
-      </c>
-      <c r="P38" s="137" t="s">
+      <c r="N41" s="131">
+        <v>2823.6368912623439</v>
+      </c>
+      <c r="O41" s="129">
+        <v>53180</v>
+      </c>
+      <c r="P41" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="Q38" s="137">
+      <c r="Q41" s="129">
         <v>-1</v>
       </c>
-      <c r="R38" s="137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="138">
-        <v>43174</v>
-      </c>
-      <c r="E39" s="138">
-        <v>43206</v>
-      </c>
-      <c r="F39" s="137">
-        <v>53180</v>
-      </c>
-      <c r="G39" s="137">
-        <v>32</v>
-      </c>
-      <c r="H39" s="137">
-        <v>8.7671232876712329E-2</v>
-      </c>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137">
-        <v>0.18</v>
-      </c>
-      <c r="K39" s="137">
-        <v>-1128.6169261420218</v>
-      </c>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137">
-        <v>0</v>
-      </c>
-      <c r="N39" s="140">
-        <v>1128.6169261420218</v>
-      </c>
-      <c r="O39" s="137">
-        <v>53180</v>
-      </c>
-      <c r="P39" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q39" s="137">
-        <v>-1</v>
-      </c>
-      <c r="R39" s="137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="B40" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="138">
-        <v>43174</v>
-      </c>
-      <c r="E40" s="138">
-        <v>43266</v>
-      </c>
-      <c r="F40" s="137">
-        <v>53180</v>
-      </c>
-      <c r="G40" s="137">
-        <v>92</v>
-      </c>
-      <c r="H40" s="137">
-        <v>0.25205479452054796</v>
-      </c>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137">
-        <v>0.19</v>
-      </c>
-      <c r="K40" s="137">
-        <v>-2012.822743117471</v>
-      </c>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137">
-        <v>0</v>
-      </c>
-      <c r="N40" s="140">
-        <v>2012.822743117471</v>
-      </c>
-      <c r="O40" s="137">
-        <v>53180</v>
-      </c>
-      <c r="P40" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q40" s="137">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="138">
-        <v>43174</v>
-      </c>
-      <c r="E41" s="138">
-        <v>43357</v>
-      </c>
-      <c r="F41" s="137">
-        <v>53180</v>
-      </c>
-      <c r="G41" s="137">
-        <v>183</v>
-      </c>
-      <c r="H41" s="137">
-        <v>0.50136986301369868</v>
-      </c>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137">
-        <v>0.19</v>
-      </c>
-      <c r="K41" s="137">
-        <v>-2823.6368912623439</v>
-      </c>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137">
-        <v>0</v>
-      </c>
-      <c r="N41" s="140">
-        <v>2823.6368912623439</v>
-      </c>
-      <c r="O41" s="137">
-        <v>53180</v>
-      </c>
-      <c r="P41" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41" s="137">
-        <v>-1</v>
-      </c>
-      <c r="R41" s="137" t="s">
+      <c r="R41" s="129" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3834,7 +3777,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
@@ -3852,15 +3795,15 @@
     <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="145" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1"/>
-    <row r="3" spans="1:21">
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+    </row>
+    <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -3880,7 +3823,7 @@
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="17" t="s">
         <v>30</v>
@@ -3941,7 +3884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1">
+    <row r="5" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3963,7 +3906,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="12" thickBot="1">
+    <row r="7" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
@@ -4023,7 +3966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4045,7 +3988,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4081,1217 +4024,1334 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="127"/>
-    <col min="4" max="4" width="9" style="127" customWidth="1"/>
-    <col min="5" max="7" width="9" style="127"/>
-    <col min="8" max="8" width="9.625" style="127" customWidth="1"/>
-    <col min="9" max="9" width="9" style="127"/>
-    <col min="10" max="10" width="9.25" style="127" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="127"/>
+    <col min="1" max="3" width="9" style="119"/>
+    <col min="4" max="4" width="9" style="119" customWidth="1"/>
+    <col min="5" max="7" width="9" style="119"/>
+    <col min="8" max="8" width="9.625" style="119" customWidth="1"/>
+    <col min="9" max="9" width="9" style="119"/>
+    <col min="10" max="10" width="9.25" style="119" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="11.25" thickBot="1">
-      <c r="B1" s="164" t="s">
+    <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="164"/>
-    </row>
-    <row r="2" spans="2:20" ht="11.25" thickTop="1"/>
-    <row r="3" spans="2:20" ht="11.25" thickBot="1">
-      <c r="B3" s="163" t="s">
+      <c r="C1" s="151"/>
+    </row>
+    <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="G3" s="162" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="G3" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="L3" s="163" t="s">
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="L3" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="Q3" s="162" t="s">
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="Q3" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-    </row>
-    <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1">
-      <c r="B4" s="152" t="s">
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+    </row>
+    <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="G4" s="152" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="G4" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="L4" s="152" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="L4" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="Q4" s="152" t="s">
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="Q4" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1">
-      <c r="B5" s="159" t="s">
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="166"/>
-      <c r="G5" s="159" t="s">
+      <c r="C5" s="150"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="G5" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
-      <c r="L5" s="128" t="s">
+      <c r="H5" s="150"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
+      <c r="L5" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="M5" s="129"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="131"/>
-      <c r="Q5" s="159" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
+      <c r="Q5" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="159"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="131"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="159" t="s">
+      <c r="R5" s="150"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="123"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="G6" s="159" t="s">
+      <c r="E6" s="149"/>
+      <c r="G6" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161"/>
-      <c r="L6" s="159" t="s">
+      <c r="H6" s="150"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+      <c r="L6" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="159"/>
-      <c r="N6" s="160" t="s">
+      <c r="M6" s="150"/>
+      <c r="N6" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="Q6" s="159" t="s">
+      <c r="O6" s="149"/>
+      <c r="Q6" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="159"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="161"/>
-    </row>
-    <row r="7" spans="2:20" ht="2.25" customHeight="1">
-      <c r="B7" s="159" t="s">
+      <c r="R6" s="150"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="149"/>
+    </row>
+    <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="149"/>
+      <c r="G7" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="L7" s="159" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
+      <c r="L7" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="159"/>
-      <c r="N7" s="160" t="s">
+      <c r="M7" s="150"/>
+      <c r="N7" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="161"/>
-      <c r="Q7" s="159" t="s">
+      <c r="O7" s="149"/>
+      <c r="Q7" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="161"/>
-    </row>
-    <row r="8" spans="2:20" hidden="1">
-      <c r="B8" s="159" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="149"/>
+    </row>
+    <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="160">
+      <c r="C8" s="150"/>
+      <c r="D8" s="148">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="G8" s="159" t="s">
+      <c r="E8" s="149"/>
+      <c r="G8" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="161"/>
-      <c r="L8" s="159" t="s">
+      <c r="H8" s="150"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
+      <c r="L8" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="159"/>
-      <c r="N8" s="160">
+      <c r="M8" s="150"/>
+      <c r="N8" s="148">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="161"/>
-      <c r="Q8" s="159" t="s">
+      <c r="O8" s="149"/>
+      <c r="Q8" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="159"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="161"/>
-    </row>
-    <row r="9" spans="2:20" hidden="1">
-      <c r="B9" s="159" t="s">
+      <c r="R8" s="150"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="149"/>
+    </row>
+    <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="160" t="s">
+      <c r="C9" s="150"/>
+      <c r="D9" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="G9" s="159" t="s">
+      <c r="E9" s="149"/>
+      <c r="G9" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="159"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
-      <c r="L9" s="159" t="s">
+      <c r="H9" s="150"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
+      <c r="L9" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160" t="s">
+      <c r="M9" s="150"/>
+      <c r="N9" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="161"/>
-      <c r="Q9" s="159" t="s">
+      <c r="O9" s="149"/>
+      <c r="Q9" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="159"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="161"/>
-    </row>
-    <row r="10" spans="2:20" hidden="1">
-      <c r="B10" s="159" t="s">
+      <c r="R9" s="150"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="149"/>
+    </row>
+    <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160">
+      <c r="C10" s="150"/>
+      <c r="D10" s="148">
         <v>43084</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="G10" s="132" t="s">
+      <c r="E10" s="149"/>
+      <c r="G10" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="132"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
-      <c r="L10" s="159" t="s">
+      <c r="H10" s="124"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
+      <c r="L10" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="159"/>
-      <c r="N10" s="160">
+      <c r="M10" s="150"/>
+      <c r="N10" s="148">
         <v>43084</v>
       </c>
-      <c r="O10" s="161"/>
-      <c r="Q10" s="132" t="s">
+      <c r="O10" s="149"/>
+      <c r="Q10" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="R10" s="132"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="161"/>
-    </row>
-    <row r="11" spans="2:20" hidden="1">
-      <c r="B11" s="159" t="s">
+      <c r="R10" s="124"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="149"/>
+    </row>
+    <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160">
+      <c r="C11" s="150"/>
+      <c r="D11" s="148">
         <v>3935</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="G11" s="159" t="s">
+      <c r="E11" s="149"/>
+      <c r="G11" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="159"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
-      <c r="L11" s="159" t="s">
+      <c r="H11" s="150"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
+      <c r="L11" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="159"/>
-      <c r="N11" s="160">
+      <c r="M11" s="150"/>
+      <c r="N11" s="148">
         <v>3935</v>
       </c>
-      <c r="O11" s="161"/>
-      <c r="Q11" s="159" t="s">
+      <c r="O11" s="149"/>
+      <c r="Q11" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="159"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="161"/>
-    </row>
-    <row r="12" spans="2:20" hidden="1">
-      <c r="B12" s="159" t="s">
+      <c r="R11" s="150"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="149"/>
+    </row>
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160">
+      <c r="C12" s="150"/>
+      <c r="D12" s="148">
         <v>3800</v>
       </c>
-      <c r="E12" s="161"/>
-      <c r="G12" s="159" t="s">
+      <c r="E12" s="149"/>
+      <c r="G12" s="150" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
-      <c r="L12" s="159" t="s">
+      <c r="H12" s="150"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
+      <c r="L12" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="159"/>
-      <c r="N12" s="160">
+      <c r="M12" s="150"/>
+      <c r="N12" s="148">
         <v>3800</v>
       </c>
-      <c r="O12" s="161"/>
-      <c r="Q12" s="159" t="s">
+      <c r="O12" s="149"/>
+      <c r="Q12" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="159"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="161"/>
-    </row>
-    <row r="13" spans="2:20" hidden="1">
-      <c r="B13" s="159" t="s">
+      <c r="R12" s="150"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="149"/>
+    </row>
+    <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160">
+      <c r="C13" s="150"/>
+      <c r="D13" s="148">
         <v>61</v>
       </c>
-      <c r="E13" s="161"/>
-      <c r="G13" s="159" t="s">
+      <c r="E13" s="149"/>
+      <c r="G13" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="159"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
-      <c r="L13" s="159" t="s">
+      <c r="H13" s="150"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
+      <c r="L13" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="159"/>
-      <c r="N13" s="160">
+      <c r="M13" s="150"/>
+      <c r="N13" s="148">
         <v>3800</v>
       </c>
-      <c r="O13" s="161"/>
-      <c r="Q13" s="159" t="s">
+      <c r="O13" s="149"/>
+      <c r="Q13" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="159"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="161"/>
-    </row>
-    <row r="14" spans="2:20" hidden="1">
-      <c r="B14" s="159" t="s">
+      <c r="R13" s="150"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="149"/>
+    </row>
+    <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160" t="s">
+      <c r="C14" s="150"/>
+      <c r="D14" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="161"/>
-      <c r="G14" s="159" t="s">
+      <c r="E14" s="149"/>
+      <c r="G14" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="L14" s="159" t="s">
+      <c r="H14" s="150"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="126"/>
+      <c r="L14" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="159"/>
-      <c r="N14" s="160">
+      <c r="M14" s="150"/>
+      <c r="N14" s="148">
         <v>61</v>
       </c>
-      <c r="O14" s="161"/>
-      <c r="Q14" s="159" t="s">
+      <c r="O14" s="149"/>
+      <c r="Q14" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="159"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="161"/>
-    </row>
-    <row r="15" spans="2:20" hidden="1">
-      <c r="B15" s="159" t="s">
+      <c r="R14" s="150"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="149"/>
+    </row>
+    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160">
+      <c r="C15" s="150"/>
+      <c r="D15" s="148">
         <v>5000</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="G15" s="159" t="s">
+      <c r="E15" s="149"/>
+      <c r="G15" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
-      <c r="L15" s="159" t="s">
+      <c r="H15" s="150"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="149"/>
+      <c r="L15" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="159"/>
-      <c r="N15" s="160" t="s">
+      <c r="M15" s="150"/>
+      <c r="N15" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="161"/>
-      <c r="Q15" s="159" t="s">
+      <c r="O15" s="149"/>
+      <c r="Q15" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="159"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="134"/>
-    </row>
-    <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1">
-      <c r="B16" s="156" t="s">
+      <c r="R15" s="150"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="126"/>
+    </row>
+    <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="157" t="s">
+      <c r="C16" s="145"/>
+      <c r="D16" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="G16" s="156" t="s">
+      <c r="E16" s="147"/>
+      <c r="G16" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="156"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
-      <c r="L16" s="159" t="s">
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="L16" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="159"/>
-      <c r="N16" s="160">
+      <c r="M16" s="150"/>
+      <c r="N16" s="148">
         <v>5000</v>
       </c>
-      <c r="O16" s="161"/>
-      <c r="Q16" s="159" t="s">
+      <c r="O16" s="149"/>
+      <c r="Q16" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="159"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="161"/>
-    </row>
-    <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1">
-      <c r="L17" s="156" t="s">
+      <c r="R16" s="150"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="149"/>
+    </row>
+    <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157" t="s">
+      <c r="M17" s="145"/>
+      <c r="N17" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="158"/>
-      <c r="Q17" s="156" t="s">
+      <c r="O17" s="147"/>
+      <c r="Q17" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="156"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="158"/>
-    </row>
-    <row r="19" spans="2:25">
-      <c r="B19" s="135" t="s">
+      <c r="R17" s="145"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="147"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="B19" s="127" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="11.25" thickBot="1">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="136"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
-    </row>
-    <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1">
-      <c r="B22" s="155" t="s">
+    <row r="21" spans="2:25" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+    </row>
+    <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="G22" s="155" t="s">
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="G22" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="L22" s="152" t="s">
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="L22" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="Q22" s="155" t="s">
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="Q22" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="V22" s="152" t="s">
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="V22" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152"/>
-      <c r="Y22" s="152"/>
-    </row>
-    <row r="23" spans="2:25" ht="12" thickTop="1">
-      <c r="B23" s="146" t="s">
+      <c r="W22" s="153"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
+    </row>
+    <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="153">
+      <c r="C23" s="136"/>
+      <c r="D23" s="142">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
-      </c>
-      <c r="E23" s="154"/>
-      <c r="G23" s="146" t="s">
+        <v>43179</v>
+      </c>
+      <c r="E23" s="144"/>
+      <c r="G23" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="146"/>
-      <c r="I23" s="153">
+      <c r="H23" s="136"/>
+      <c r="I23" s="142">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
-      </c>
-      <c r="J23" s="154"/>
-      <c r="L23" s="146" t="s">
+        <v>43179</v>
+      </c>
+      <c r="J23" s="144"/>
+      <c r="L23" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="146"/>
-      <c r="N23" s="153">
+      <c r="M23" s="136"/>
+      <c r="N23" s="142">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
-      </c>
-      <c r="O23" s="154"/>
-      <c r="Q23" s="146" t="s">
+        <v>43179</v>
+      </c>
+      <c r="O23" s="144"/>
+      <c r="Q23" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="146"/>
-      <c r="S23" s="153">
+      <c r="R23" s="136"/>
+      <c r="S23" s="142">
         <f ca="1">TODAY()-1</f>
-        <v>43173</v>
-      </c>
-      <c r="T23" s="154"/>
-      <c r="V23" s="146" t="s">
+        <v>43178</v>
+      </c>
+      <c r="T23" s="144"/>
+      <c r="V23" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="W23" s="146"/>
-      <c r="X23" s="153">
+      <c r="W23" s="136"/>
+      <c r="X23" s="142">
         <f ca="1">TODAY()-1</f>
-        <v>43173</v>
-      </c>
-      <c r="Y23" s="154"/>
-    </row>
-    <row r="24" spans="2:25" ht="11.25">
-      <c r="B24" s="146" t="s">
+        <v>43178</v>
+      </c>
+      <c r="Y23" s="144"/>
+    </row>
+    <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147" t="s">
+      <c r="C24" s="136"/>
+      <c r="D24" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="148"/>
-      <c r="G24" s="146" t="s">
+      <c r="E24" s="138"/>
+      <c r="G24" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147" t="s">
+      <c r="H24" s="136"/>
+      <c r="I24" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="148"/>
-      <c r="L24" s="146" t="s">
+      <c r="J24" s="138"/>
+      <c r="L24" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="146"/>
-      <c r="N24" s="147" t="s">
+      <c r="M24" s="136"/>
+      <c r="N24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="148"/>
-      <c r="Q24" s="146" t="s">
+      <c r="O24" s="138"/>
+      <c r="Q24" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="146"/>
-      <c r="S24" s="147" t="s">
+      <c r="R24" s="136"/>
+      <c r="S24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="148"/>
-      <c r="V24" s="146" t="s">
+      <c r="T24" s="138"/>
+      <c r="V24" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="146"/>
-      <c r="X24" s="147" t="s">
+      <c r="W24" s="136"/>
+      <c r="X24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="148"/>
-    </row>
-    <row r="25" spans="2:25" ht="11.25">
-      <c r="B25" s="146" t="s">
+      <c r="Y24" s="138"/>
+    </row>
+    <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147" t="s">
+      <c r="C25" s="136"/>
+      <c r="D25" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="G25" s="146" t="s">
+      <c r="E25" s="138"/>
+      <c r="G25" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147" t="s">
+      <c r="H25" s="136"/>
+      <c r="I25" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="148"/>
-      <c r="L25" s="146" t="s">
+      <c r="J25" s="138"/>
+      <c r="L25" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="146"/>
-      <c r="N25" s="147" t="s">
+      <c r="M25" s="136"/>
+      <c r="N25" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="O25" s="148"/>
-      <c r="Q25" s="146" t="s">
+      <c r="O25" s="138"/>
+      <c r="Q25" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="146"/>
-      <c r="S25" s="147" t="s">
+      <c r="R25" s="136"/>
+      <c r="S25" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="148"/>
-      <c r="V25" s="146" t="s">
+      <c r="T25" s="138"/>
+      <c r="V25" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="146"/>
-      <c r="X25" s="147" t="s">
+      <c r="W25" s="136"/>
+      <c r="X25" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" s="148"/>
-    </row>
-    <row r="26" spans="2:25" ht="11.25">
-      <c r="B26" s="146" t="s">
+      <c r="Y25" s="138"/>
+    </row>
+    <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147">
+      <c r="C26" s="136"/>
+      <c r="D26" s="137">
         <f>D31*D33</f>
         <v>388800</v>
       </c>
-      <c r="E26" s="148"/>
-      <c r="G26" s="146" t="s">
+      <c r="E26" s="138"/>
+      <c r="G26" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147">
+      <c r="H26" s="136"/>
+      <c r="I26" s="137">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="148"/>
-      <c r="L26" s="146" t="s">
+      <c r="J26" s="138"/>
+      <c r="L26" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="146"/>
-      <c r="N26" s="147">
+      <c r="M26" s="136"/>
+      <c r="N26" s="137">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="148"/>
-      <c r="Q26" s="146" t="s">
+      <c r="O26" s="138"/>
+      <c r="Q26" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="146"/>
-      <c r="S26" s="147">
+      <c r="R26" s="136"/>
+      <c r="S26" s="137">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="148"/>
-      <c r="V26" s="146" t="s">
+      <c r="T26" s="138"/>
+      <c r="V26" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="146"/>
-      <c r="X26" s="147">
+      <c r="W26" s="136"/>
+      <c r="X26" s="137">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="148"/>
-    </row>
-    <row r="27" spans="2:25" ht="11.25">
-      <c r="B27" s="146" t="s">
+      <c r="Y26" s="138"/>
+    </row>
+    <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147" t="s">
+      <c r="C27" s="136"/>
+      <c r="D27" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="148"/>
-      <c r="G27" s="146" t="s">
+      <c r="E27" s="138"/>
+      <c r="G27" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147" t="s">
+      <c r="H27" s="136"/>
+      <c r="I27" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="J27" s="148"/>
-      <c r="L27" s="146" t="s">
+      <c r="J27" s="138"/>
+      <c r="L27" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="146"/>
-      <c r="N27" s="147" t="s">
+      <c r="M27" s="136"/>
+      <c r="N27" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="148"/>
-      <c r="Q27" s="146" t="s">
+      <c r="O27" s="138"/>
+      <c r="Q27" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="146"/>
-      <c r="S27" s="147" t="s">
+      <c r="R27" s="136"/>
+      <c r="S27" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="148"/>
-      <c r="V27" s="146" t="s">
+      <c r="T27" s="138"/>
+      <c r="V27" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="146"/>
-      <c r="X27" s="147" t="s">
+      <c r="W27" s="136"/>
+      <c r="X27" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="148"/>
-    </row>
-    <row r="28" spans="2:25" ht="11.25">
-      <c r="B28" s="146" t="s">
+      <c r="Y27" s="138"/>
+    </row>
+    <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="153">
+      <c r="C28" s="136"/>
+      <c r="D28" s="142">
         <v>43182</v>
       </c>
-      <c r="E28" s="148"/>
-      <c r="G28" s="146" t="s">
+      <c r="E28" s="138"/>
+      <c r="G28" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="153">
+      <c r="H28" s="136"/>
+      <c r="I28" s="142">
         <v>43182</v>
       </c>
-      <c r="J28" s="148"/>
-      <c r="L28" s="146" t="s">
+      <c r="J28" s="138"/>
+      <c r="L28" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="146"/>
-      <c r="N28" s="153">
+      <c r="M28" s="136"/>
+      <c r="N28" s="142">
         <v>43219</v>
       </c>
-      <c r="O28" s="148"/>
-      <c r="Q28" s="146" t="s">
+      <c r="O28" s="138"/>
+      <c r="Q28" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="146"/>
-      <c r="S28" s="153">
+      <c r="R28" s="136"/>
+      <c r="S28" s="142">
         <v>43201</v>
       </c>
-      <c r="T28" s="148"/>
-      <c r="V28" s="146" t="s">
+      <c r="T28" s="138"/>
+      <c r="V28" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="146"/>
-      <c r="X28" s="153">
+      <c r="W28" s="136"/>
+      <c r="X28" s="142">
         <v>43201</v>
       </c>
-      <c r="Y28" s="148"/>
-    </row>
-    <row r="29" spans="2:25" ht="11.25">
-      <c r="B29" s="146" t="s">
+      <c r="Y28" s="138"/>
+    </row>
+    <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B29" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147">
+      <c r="C29" s="136"/>
+      <c r="D29" s="137">
         <v>3856</v>
       </c>
-      <c r="E29" s="148"/>
-      <c r="G29" s="146" t="s">
+      <c r="E29" s="138"/>
+      <c r="G29" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147">
+      <c r="H29" s="136"/>
+      <c r="I29" s="137">
         <v>3856</v>
       </c>
-      <c r="J29" s="148"/>
-      <c r="L29" s="146" t="s">
+      <c r="J29" s="138"/>
+      <c r="L29" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="146"/>
-      <c r="N29" s="147">
+      <c r="M29" s="136"/>
+      <c r="N29" s="137">
         <v>3760</v>
       </c>
-      <c r="O29" s="148"/>
-      <c r="Q29" s="146" t="s">
+      <c r="O29" s="138"/>
+      <c r="Q29" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="146"/>
-      <c r="S29" s="147">
+      <c r="R29" s="136"/>
+      <c r="S29" s="137">
         <v>524</v>
       </c>
-      <c r="T29" s="148"/>
-      <c r="V29" s="146" t="s">
+      <c r="T29" s="138"/>
+      <c r="V29" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="146"/>
-      <c r="X29" s="147">
+      <c r="W29" s="136"/>
+      <c r="X29" s="137">
         <v>524</v>
       </c>
-      <c r="Y29" s="148"/>
-    </row>
-    <row r="30" spans="2:25" ht="11.25">
-      <c r="B30" s="146" t="s">
+      <c r="Y29" s="138"/>
+    </row>
+    <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B30" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147">
+      <c r="C30" s="136"/>
+      <c r="D30" s="137">
         <v>3800</v>
       </c>
-      <c r="E30" s="148"/>
-      <c r="G30" s="146" t="s">
+      <c r="E30" s="138"/>
+      <c r="G30" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147">
+      <c r="H30" s="136"/>
+      <c r="I30" s="137">
         <v>3930</v>
       </c>
-      <c r="J30" s="148"/>
-      <c r="L30" s="146" t="s">
+      <c r="J30" s="138"/>
+      <c r="L30" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="146"/>
-      <c r="N30" s="147">
+      <c r="M30" s="136"/>
+      <c r="N30" s="137">
         <v>3700</v>
       </c>
-      <c r="O30" s="148"/>
-      <c r="Q30" s="146" t="s">
+      <c r="O30" s="138"/>
+      <c r="Q30" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="146"/>
-      <c r="S30" s="147">
+      <c r="R30" s="136"/>
+      <c r="S30" s="137">
         <v>524</v>
       </c>
-      <c r="T30" s="148"/>
-      <c r="V30" s="146" t="s">
+      <c r="T30" s="138"/>
+      <c r="V30" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="146"/>
-      <c r="X30" s="147">
+      <c r="W30" s="136"/>
+      <c r="X30" s="137">
         <v>524</v>
       </c>
-      <c r="Y30" s="148"/>
-    </row>
-    <row r="31" spans="2:25" ht="11.25">
-      <c r="B31" s="146" t="s">
+      <c r="Y30" s="138"/>
+    </row>
+    <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B31" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147">
+      <c r="C31" s="136"/>
+      <c r="D31" s="137">
         <v>38.880000000000003</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="G31" s="146" t="s">
+      <c r="E31" s="138"/>
+      <c r="G31" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147">
+      <c r="H31" s="136"/>
+      <c r="I31" s="137">
         <v>27.18</v>
       </c>
-      <c r="J31" s="148"/>
-      <c r="L31" s="146" t="s">
+      <c r="J31" s="138"/>
+      <c r="L31" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="146"/>
-      <c r="N31" s="147">
+      <c r="M31" s="136"/>
+      <c r="N31" s="137">
         <v>55</v>
       </c>
-      <c r="O31" s="148"/>
-      <c r="Q31" s="146" t="s">
+      <c r="O31" s="138"/>
+      <c r="Q31" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="146"/>
-      <c r="S31" s="147">
+      <c r="R31" s="136"/>
+      <c r="S31" s="137">
         <v>23.58</v>
       </c>
-      <c r="T31" s="148"/>
-      <c r="V31" s="146" t="s">
+      <c r="T31" s="138"/>
+      <c r="V31" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="146"/>
-      <c r="X31" s="147">
+      <c r="W31" s="136"/>
+      <c r="X31" s="137">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="148"/>
-    </row>
-    <row r="32" spans="2:25" ht="11.25">
-      <c r="B32" s="146" t="s">
+      <c r="Y31" s="138"/>
+    </row>
+    <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147" t="s">
+      <c r="C32" s="136"/>
+      <c r="D32" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="148"/>
-      <c r="G32" s="146" t="s">
+      <c r="E32" s="138"/>
+      <c r="G32" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147" t="s">
+      <c r="H32" s="136"/>
+      <c r="I32" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="148"/>
-      <c r="L32" s="146" t="s">
+      <c r="J32" s="138"/>
+      <c r="L32" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="146"/>
-      <c r="N32" s="147" t="s">
+      <c r="M32" s="136"/>
+      <c r="N32" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="O32" s="148"/>
-      <c r="Q32" s="146" t="s">
+      <c r="O32" s="138"/>
+      <c r="Q32" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="146"/>
-      <c r="S32" s="147" t="s">
+      <c r="R32" s="136"/>
+      <c r="S32" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="T32" s="148"/>
-      <c r="V32" s="146" t="s">
+      <c r="T32" s="138"/>
+      <c r="V32" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="146"/>
-      <c r="X32" s="147" t="s">
+      <c r="W32" s="136"/>
+      <c r="X32" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="Y32" s="148"/>
-    </row>
-    <row r="33" spans="2:25" ht="11.25">
-      <c r="B33" s="146" t="s">
+      <c r="Y32" s="138"/>
+    </row>
+    <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147">
+      <c r="C33" s="136"/>
+      <c r="D33" s="137">
         <v>10000</v>
       </c>
-      <c r="E33" s="148"/>
-      <c r="G33" s="146" t="s">
+      <c r="E33" s="138"/>
+      <c r="G33" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147">
+      <c r="H33" s="136"/>
+      <c r="I33" s="137">
         <v>10000</v>
       </c>
-      <c r="J33" s="148"/>
-      <c r="L33" s="146" t="s">
+      <c r="J33" s="138"/>
+      <c r="L33" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="146"/>
-      <c r="N33" s="147">
+      <c r="M33" s="136"/>
+      <c r="N33" s="137">
         <v>5000</v>
       </c>
-      <c r="O33" s="148"/>
-      <c r="Q33" s="146" t="s">
+      <c r="O33" s="138"/>
+      <c r="Q33" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="146"/>
-      <c r="S33" s="147">
+      <c r="R33" s="136"/>
+      <c r="S33" s="137">
         <v>10000</v>
       </c>
-      <c r="T33" s="148"/>
-      <c r="V33" s="146" t="s">
+      <c r="T33" s="138"/>
+      <c r="V33" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="146"/>
-      <c r="X33" s="147">
+      <c r="W33" s="136"/>
+      <c r="X33" s="137">
         <v>10000</v>
       </c>
-      <c r="Y33" s="148"/>
-    </row>
-    <row r="34" spans="2:25" ht="12" thickBot="1">
-      <c r="B34" s="149" t="s">
+      <c r="Y33" s="138"/>
+    </row>
+    <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="150" t="s">
+      <c r="C34" s="139"/>
+      <c r="D34" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="G34" s="149" t="s">
+      <c r="E34" s="141"/>
+      <c r="G34" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150" t="s">
+      <c r="H34" s="139"/>
+      <c r="I34" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="151"/>
-      <c r="L34" s="149" t="s">
+      <c r="J34" s="141"/>
+      <c r="L34" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="149"/>
-      <c r="N34" s="150" t="s">
+      <c r="M34" s="139"/>
+      <c r="N34" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="151"/>
-      <c r="Q34" s="149" t="s">
+      <c r="O34" s="141"/>
+      <c r="Q34" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="149"/>
-      <c r="S34" s="150" t="s">
+      <c r="R34" s="139"/>
+      <c r="S34" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="151"/>
-      <c r="V34" s="149" t="s">
+      <c r="T34" s="141"/>
+      <c r="V34" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="149"/>
-      <c r="X34" s="150" t="s">
+      <c r="W34" s="139"/>
+      <c r="X34" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="151"/>
-    </row>
-    <row r="35" spans="2:25" ht="11.25" thickTop="1"/>
-    <row r="36" spans="2:25" ht="12" thickBot="1">
-      <c r="B36" s="155" t="s">
+      <c r="Y34" s="141"/>
+    </row>
+    <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-    </row>
-    <row r="37" spans="2:25" ht="12" thickTop="1">
-      <c r="B37" s="146" t="s">
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+    </row>
+    <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="153">
+      <c r="C37" s="136"/>
+      <c r="D37" s="142">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
-      </c>
-      <c r="E37" s="154"/>
-    </row>
-    <row r="38" spans="2:25" ht="11.25">
-      <c r="B38" s="146" t="s">
+        <v>43179</v>
+      </c>
+      <c r="E37" s="144"/>
+    </row>
+    <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B38" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="147" t="s">
+      <c r="C38" s="136"/>
+      <c r="D38" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="148"/>
-    </row>
-    <row r="39" spans="2:25" ht="11.25">
-      <c r="B39" s="146" t="s">
+      <c r="E38" s="138"/>
+    </row>
+    <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B39" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147" t="s">
+      <c r="C39" s="136"/>
+      <c r="D39" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="148"/>
-    </row>
-    <row r="40" spans="2:25" ht="11.25">
-      <c r="B40" s="146" t="s">
+      <c r="E39" s="138"/>
+    </row>
+    <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147">
+      <c r="C40" s="136"/>
+      <c r="D40" s="137">
         <f>D45*D47</f>
-        <v>490000</v>
-      </c>
-      <c r="E40" s="148"/>
-    </row>
-    <row r="41" spans="2:25" ht="11.25">
-      <c r="B41" s="146" t="s">
+        <v>266600</v>
+      </c>
+      <c r="E40" s="138"/>
+    </row>
+    <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B41" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="147" t="s">
+      <c r="C41" s="136"/>
+      <c r="D41" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="148"/>
-    </row>
-    <row r="42" spans="2:25" ht="11.25">
-      <c r="B42" s="146" t="s">
+      <c r="E41" s="138"/>
+    </row>
+    <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B42" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="153">
-        <v>43251</v>
-      </c>
-      <c r="E42" s="148"/>
-    </row>
-    <row r="43" spans="2:25" ht="11.25">
-      <c r="B43" s="146" t="s">
+      <c r="C42" s="136"/>
+      <c r="D42" s="142">
+        <v>43311</v>
+      </c>
+      <c r="E42" s="138"/>
+    </row>
+    <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B43" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147">
-        <v>3625</v>
-      </c>
-      <c r="E43" s="148"/>
-    </row>
-    <row r="44" spans="2:25" ht="11.25">
-      <c r="B44" s="146" t="s">
+      <c r="C43" s="136"/>
+      <c r="D43" s="137">
+        <v>3605</v>
+      </c>
+      <c r="E43" s="138"/>
+    </row>
+    <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B44" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147">
-        <v>3500</v>
-      </c>
-      <c r="E44" s="148"/>
-    </row>
-    <row r="45" spans="2:25" ht="11.25">
-      <c r="B45" s="146" t="s">
+      <c r="C44" s="136"/>
+      <c r="D44" s="137">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="138"/>
+    </row>
+    <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B45" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="147">
-        <v>98</v>
-      </c>
-      <c r="E45" s="148"/>
-    </row>
-    <row r="46" spans="2:25" ht="11.25">
-      <c r="B46" s="146" t="s">
+      <c r="C45" s="136"/>
+      <c r="D45" s="137">
+        <v>26.66</v>
+      </c>
+      <c r="E45" s="138"/>
+    </row>
+    <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B46" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="147" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="148"/>
-    </row>
-    <row r="47" spans="2:25" ht="11.25">
-      <c r="B47" s="146" t="s">
+      <c r="C46" s="136"/>
+      <c r="D46" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="138"/>
+    </row>
+    <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B47" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="147">
-        <v>5000</v>
-      </c>
-      <c r="E47" s="148"/>
-    </row>
-    <row r="48" spans="2:25" ht="12" thickBot="1">
-      <c r="B48" s="149" t="s">
+      <c r="C47" s="136"/>
+      <c r="D47" s="137">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="138"/>
+    </row>
+    <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="150" t="s">
+      <c r="C48" s="139"/>
+      <c r="D48" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="151"/>
-    </row>
-    <row r="49" ht="11.25" thickTop="1"/>
+      <c r="E48" s="141"/>
+    </row>
+    <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
@@ -5316,178 +5376,61 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5498,13 +5441,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="27" style="6" customWidth="1"/>
@@ -5527,13 +5470,13 @@
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="167" t="s">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="167"/>
-    </row>
-    <row r="2" spans="1:25" ht="12" thickTop="1">
+      <c r="C1" s="157"/>
+    </row>
+    <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5484,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.5">
+    <row r="3" spans="1:25" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
         <v>194</v>
       </c>
@@ -5552,7 +5495,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12" thickBot="1">
+    <row r="4" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -5560,8 +5503,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12" thickTop="1"/>
-    <row r="6" spans="1:25" ht="12" thickBot="1">
+    <row r="5" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -5587,7 +5530,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>170</v>
       </c>
@@ -5650,7 +5593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12" thickTop="1">
+    <row r="8" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -5662,12 +5605,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E24" ca="1" si="0">TODAY()</f>
-        <v>43174</v>
+        <f t="shared" ref="E8:E18" ca="1" si="0">TODAY()</f>
+        <v>43179</v>
       </c>
       <c r="F8" s="21">
         <f ca="1">E8+H8</f>
-        <v>43254</v>
+        <v>43259</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -5687,7 +5630,7 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-187.44043195400991</v>
+        <v>-140.60021788236645</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
@@ -5696,11 +5639,11 @@
       </c>
       <c r="O8" s="24">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>187.44043195400991</v>
+        <v>140.60021788236645</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3752</v>
+        <v>3648</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -5714,18 +5657,18 @@
       </c>
       <c r="T8" s="26">
         <f>O8/P8</f>
-        <v>4.9957471203094322E-2</v>
+        <v>3.854172639319256E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.48975640320350067</v>
+        <v>-0.41096346690210339</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-6.9755101225795215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>-6.620465788416027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
       <c r="B9" s="13" t="s">
         <v>172</v>
@@ -5738,11 +5681,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">E9+H9</f>
-        <v>43346</v>
+        <v>43351</v>
       </c>
       <c r="G9" s="10">
         <v>62.9</v>
@@ -5798,7 +5741,7 @@
         <v>0.16981641553135773</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="10.5" customHeight="1">
+    <row r="10" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
       <c r="B10" s="13" t="s">
         <v>172</v>
@@ -5811,11 +5754,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">E10+H10</f>
-        <v>43235</v>
+        <v>43240</v>
       </c>
       <c r="G10" s="10">
         <v>100</v>
@@ -5874,7 +5817,7 @@
         <v>0.15710900561579066</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="10.5" customHeight="1">
+    <row r="11" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
       <c r="B11" s="13" t="s">
         <v>172</v>
@@ -5887,11 +5830,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">E11+H11</f>
-        <v>43235</v>
+        <v>43240</v>
       </c>
       <c r="G11" s="10">
         <v>100</v>
@@ -5950,7 +5893,7 @@
         <v>0.1624480254032683</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="10.5" customHeight="1">
+    <row r="12" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
@@ -5974,7 +5917,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="10.5" customHeight="1">
+    <row r="13" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
       <c r="B13" s="13" t="s">
         <v>172</v>
@@ -5987,11 +5930,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="1">E13+H13</f>
-        <v>43251</v>
+        <v>43256</v>
       </c>
       <c r="G13" s="10">
         <v>3500</v>
@@ -6011,7 +5954,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-96.763245722838747</v>
+        <v>-161.60733512165802</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -6022,11 +5965,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13" si="4">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>96.763245722838747</v>
+        <v>161.60733512165802</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -6040,18 +5983,18 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13" si="6">O13/P13</f>
-        <v>2.6722796388522162E-2</v>
+        <v>4.6572719055232858E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.35250781082822868</v>
+        <v>0.50928215288195133</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-6.1588666764054096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="10.5" customHeight="1">
+        <v>-6.3288459847699414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
       <c r="B14" s="13" t="s">
         <v>172</v>
@@ -6064,11 +6007,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14" ca="1" si="7">E14+H14</f>
-        <v>43311</v>
+        <f t="shared" ref="F14:F15" ca="1" si="7">E14+H14</f>
+        <v>43316</v>
       </c>
       <c r="G14" s="10">
         <v>3000</v>
@@ -6077,7 +6020,7 @@
         <v>137</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" ref="I14" si="8">(H14)/365</f>
+        <f t="shared" ref="I14:I15" si="8">(H14)/365</f>
         <v>0.37534246575342467</v>
       </c>
       <c r="J14" s="12">
@@ -6088,71 +6031,124 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-19.431636885872422</v>
+        <v>-35.243872402141562</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" ref="N14" si="9">M14/10000*I14*P14</f>
+        <f t="shared" ref="N14:N15" si="9">M14/10000*I14*P14</f>
         <v>0</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" ref="O14" si="10">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>19.431636885872422</v>
+        <f t="shared" ref="O14:O15" si="10">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
+        <v>35.243872402141562</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14" si="11">IF(S14="中金买入",1,-1)</f>
+        <f t="shared" ref="R14:R15" si="11">IF(S14="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" ref="T14" si="12">O14/P14</f>
-        <v>5.3663730698349683E-3</v>
+        <f t="shared" ref="T14:T15" si="12">O14/P14</f>
+        <v>1.0156735562576819E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>7.93209176521259E-2</v>
+        <v>0.13393285420590928</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-3.2685912750386308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="10.5" customHeight="1">
+        <v>-4.5768603604026055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="1:25" ht="10.5" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43179</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>43210</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3323</v>
+      </c>
+      <c r="H15" s="10">
+        <v>31</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="8"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="L15" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>-10.285303682427013</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="10"/>
+        <v>10.285303682427013</v>
+      </c>
+      <c r="P15" s="11">
+        <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
+        <v>3648</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="12"/>
+        <v>2.8194363164547732E-3</v>
+      </c>
+      <c r="U15" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>8.5343744268584487E-2</v>
+      </c>
+      <c r="V15" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>-1.6575947270795268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
       <c r="B16" s="13" t="s">
         <v>172</v>
@@ -6161,866 +6157,149 @@
         <v>161</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" ca="1" si="13">E16+H16</f>
-        <v>43266</v>
+        <f t="shared" ref="F16" ca="1" si="13">E16+H16</f>
+        <v>43210</v>
       </c>
       <c r="G16" s="10">
-        <v>3600</v>
+        <v>4123</v>
       </c>
       <c r="H16" s="10">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" ref="I16:I17" si="14">(H16)/365</f>
-        <v>0.25205479452054796</v>
+        <f t="shared" ref="I16" si="14">(H16)/365</f>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J16" s="12">
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-172.46466323103368</v>
+        <v>1.4590741801711289</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" ref="N16:N17" si="15">M16/10000*I16*P16</f>
+        <f t="shared" ref="N16" si="15">M16/10000*I16*P16</f>
         <v>0</v>
       </c>
       <c r="O16" s="13">
-        <f t="shared" ref="O16:O17" si="16">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
-        <v>172.46466323103368</v>
+        <f t="shared" ref="O16" si="16">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
+        <v>1.4590741801711289</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>3621</v>
+        <v>3648</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" ref="R16:R17" si="17">IF(S16="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" ref="R16" si="17">IF(S16="中金买入",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T16" s="14">
-        <f t="shared" ref="T16:T17" si="18">O16/P16</f>
-        <v>4.7629014976811289E-2</v>
+        <f t="shared" ref="T16" si="18">O16/P16</f>
+        <v>3.9996550991533138E-4</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-0.5402601629612036</v>
+        <v>1.9152448749792939E-2</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-7.1740388461995508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="13" t="s">
+        <v>0.49732369749834149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" ca="1" si="13"/>
-        <v>43358</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3600</v>
-      </c>
-      <c r="H17" s="10">
-        <v>184</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="14"/>
-        <v>0.50410958904109593</v>
-      </c>
-      <c r="J17" s="12">
+        <v>43179</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18" ca="1" si="19">E18+H18</f>
+        <v>43311</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>132</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" ref="I18" si="20">(H18)/365</f>
+        <v>0.36164383561643837</v>
+      </c>
+      <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K17" s="9">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="L17" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-238.09794153228245</v>
-      </c>
-      <c r="M17" s="15">
+      <c r="K18" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>24.765366284094739</v>
+      </c>
+      <c r="M18" s="15">
         <v>0</v>
       </c>
-      <c r="N17" s="13">
-        <f t="shared" si="15"/>
+      <c r="N18" s="13">
+        <f t="shared" ref="N18" si="21">M18/10000*I18*P18</f>
         <v>0</v>
       </c>
-      <c r="O17" s="13">
-        <f t="shared" si="16"/>
-        <v>238.09794153228245</v>
-      </c>
-      <c r="P17" s="11">
-        <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
+      <c r="O18" s="13">
+        <f t="shared" ref="O18" si="22">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
+        <v>24.765366284094739</v>
+      </c>
+      <c r="P18" s="11">
         <v>3621</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="14">
-        <f t="shared" si="18"/>
-        <v>6.5754747730539201E-2</v>
-      </c>
-      <c r="U17" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-0.54080645529666072</v>
-      </c>
-      <c r="V17" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-10.085203300335934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-    </row>
-    <row r="19" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" ref="F19" ca="1" si="19">E19+H19</f>
-        <v>43206</v>
-      </c>
-      <c r="G19" s="11">
-        <f>P19</f>
-        <v>9005</v>
-      </c>
-      <c r="H19" s="10">
-        <v>32</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" ref="I19" si="20">(H19)/365</f>
-        <v>8.7671232876712329E-2</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="L19" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-180.49447467874597</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="13">
-        <f t="shared" ref="N19" si="21">M19/10000*I19*P19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" ref="O19" si="22">IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>180.49447467874597</v>
-      </c>
-      <c r="P19" s="11">
-        <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>9005</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" ref="R19" si="23">IF(S19="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="14">
-        <f t="shared" ref="T19" si="24">O19/P19</f>
-        <v>2.0043806183092278E-2</v>
-      </c>
-      <c r="U19" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.50914595885842573</v>
-      </c>
-      <c r="V19" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-10.615076596195195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20" ca="1" si="25">E20+H20</f>
-        <v>43266</v>
-      </c>
-      <c r="G20" s="10">
-        <f t="shared" ref="G20:G24" si="26">P20</f>
-        <v>9005</v>
-      </c>
-      <c r="H20" s="10">
-        <v>92</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" ref="I20" si="27">(H20)/365</f>
-        <v>0.25205479452054796</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="L20" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-322.90642794743144</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="13">
-        <f t="shared" ref="N20" si="28">M20/10000*I20*P20</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="13">
-        <f t="shared" ref="O20" si="29">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>322.90642794743144</v>
-      </c>
-      <c r="P20" s="11">
-        <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>9005</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" ref="R20" si="30">IF(S20="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="14">
-        <f t="shared" ref="T20" si="31">O20/P20</f>
-        <v>3.585857056606679E-2</v>
-      </c>
-      <c r="U20" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.51541507982619805</v>
-      </c>
-      <c r="V20" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-17.927022014117938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" ref="F21:F23" ca="1" si="32">E21+H21</f>
-        <v>43327</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="26"/>
-        <v>9005</v>
-      </c>
-      <c r="H21" s="10">
-        <v>153</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" ref="I21:I23" si="33">(H21)/365</f>
-        <v>0.41917808219178082</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="L21" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-437.95750501070597</v>
-      </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="13">
-        <f t="shared" ref="N21:N23" si="34">M21/10000*I21*P21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="13">
-        <f t="shared" ref="O21:O23" si="35">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>437.95750501070597</v>
-      </c>
-      <c r="P21" s="11">
-        <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>9005</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" ref="R21:R23" si="36">IF(S21="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" s="14">
-        <f t="shared" ref="T21:T23" si="37">O21/P21</f>
-        <v>4.8634925598079505E-2</v>
-      </c>
-      <c r="U21" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.52014320408488857</v>
-      </c>
-      <c r="V21" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-23.021302423777797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>43206</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="26"/>
-        <v>53210</v>
-      </c>
-      <c r="H22" s="10">
-        <v>32</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="33"/>
-        <v>8.7671232876712329E-2</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="L22" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-1129.2536036106976</v>
-      </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="13">
-        <f t="shared" si="35"/>
-        <v>1129.2536036106976</v>
-      </c>
-      <c r="P22" s="11">
-        <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>53210</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="10">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="14">
-        <f t="shared" si="37"/>
-        <v>2.1222582289244458E-2</v>
-      </c>
-      <c r="U22" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.50973534689546796</v>
-      </c>
-      <c r="V22" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-62.721439363753234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" ca="1" si="32"/>
-        <v>43266</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="26"/>
-        <v>53210</v>
-      </c>
-      <c r="H23" s="10">
-        <v>92</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="33"/>
-        <v>0.25205479452054796</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="L23" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-2013.9582204076833</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="13">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="13">
-        <f t="shared" si="35"/>
-        <v>2013.9582204076833</v>
-      </c>
-      <c r="P23" s="11">
-        <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>53210</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="10">
-        <f t="shared" si="36"/>
-        <v>-1</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T23" s="14">
-        <f t="shared" si="37"/>
-        <v>3.7849243007097973E-2</v>
-      </c>
-      <c r="U23" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-0.51641041645780206</v>
-      </c>
-      <c r="V23" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-105.91734005943363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>43174</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24" ca="1" si="38">E24+H24</f>
-        <v>43357</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="26"/>
-        <v>53210</v>
-      </c>
-      <c r="H24" s="10">
-        <v>183</v>
-      </c>
-      <c r="I24" s="12">
-        <f t="shared" ref="I24" si="39">(H24)/365</f>
-        <v>0.50136986301369868</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="L24" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>-2825.2297665300721</v>
-      </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="13">
-        <f t="shared" ref="N24" si="40">M24/10000*I24*P24</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
-        <f>IF(L24&lt;=0,ABS(L24)+N24,L24-N24)</f>
-        <v>2825.2297665300721</v>
-      </c>
-      <c r="P24" s="11">
-        <f>RTD("wdf.rtq",,D24,"LastPrice")</f>
-        <v>53210</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="10">
-        <f t="shared" ref="R24" si="41">IF(S24="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" s="14">
-        <f t="shared" ref="T24" si="42">O24/P24</f>
-        <v>5.3095842257659689E-2</v>
-      </c>
-      <c r="U24" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>-0.52155927587591577</v>
-      </c>
-      <c r="V24" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>-148.47185322024052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-    </row>
-    <row r="26" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-    </row>
-    <row r="27" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-    </row>
-    <row r="28" spans="1:22" ht="15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-    </row>
-    <row r="29" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="42"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-    </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-    </row>
-    <row r="32" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-    </row>
-    <row r="33" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-    </row>
-    <row r="34" spans="1:22" ht="10.5" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="H35" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="P37" s="144"/>
+      <c r="Q18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" ref="R18" si="23">IF(S18="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" ref="T18" si="24">O18/P18</f>
+        <v>6.8393720751435344E-3</v>
+      </c>
+      <c r="U18" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>-9.1660086042111288E-2</v>
+      </c>
+      <c r="V18" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>3.5755440105097875</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7036,19 +6315,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S34</xm:sqref>
+          <xm:sqref>S8:S16 S18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q34</xm:sqref>
+          <xm:sqref>Q8:Q16 Q18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C34</xm:sqref>
+          <xm:sqref>C8:C16 C18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7065,7 +6344,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
@@ -7091,13 +6370,13 @@
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="168" t="s">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="167"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="157"/>
+    </row>
+    <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
@@ -7105,7 +6384,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
@@ -7113,7 +6392,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -7121,8 +6400,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -7145,7 +6424,7 @@
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="48" t="s">
         <v>29</v>
@@ -7209,7 +6488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" thickTop="1">
+    <row r="8" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="51" t="s">
         <v>173</v>
@@ -7222,11 +6501,11 @@
       </c>
       <c r="E8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F8" s="54">
         <f ca="1">E8+H8</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G8" s="52">
         <v>100</v>
@@ -7277,7 +6556,7 @@
         <v>-0.11406523569462124</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5">
+    <row r="9" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="50"/>
       <c r="B9" s="59" t="s">
         <v>174</v>
@@ -7290,11 +6569,11 @@
       </c>
       <c r="E9" s="62">
         <f ca="1">E8</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G9" s="60">
         <v>100</v>
@@ -7347,7 +6626,7 @@
         <v>0.11407976820886745</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.25" thickBot="1">
+    <row r="10" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="67" t="s">
         <v>175</v>
@@ -7361,11 +6640,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">E9</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G10" s="68" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -7416,7 +6695,7 @@
         <v>1.4532514246212713E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.25" thickTop="1">
+    <row r="11" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A11" s="73"/>
       <c r="B11" s="51" t="s">
         <v>173</v>
@@ -7429,11 +6708,11 @@
       </c>
       <c r="E11" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F11" s="54">
         <f ca="1">E11+H11</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G11" s="52">
         <v>3300</v>
@@ -7453,17 +6732,17 @@
       </c>
       <c r="L11" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-7.4827271421998489</v>
+        <v>-27.184275307245798</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="51"/>
       <c r="O11" s="51">
         <f t="shared" si="0"/>
-        <v>7.4827271421998489</v>
-      </c>
-      <c r="P11" s="141">
+        <v>27.184275307245798</v>
+      </c>
+      <c r="P11" s="132">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q11" s="52" t="s">
         <v>85</v>
@@ -7478,14 +6757,14 @@
       <c r="T11" s="58"/>
       <c r="U11" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>7.0486300531058532E-2</v>
+        <v>0.20834608369000307</v>
       </c>
       <c r="V11" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-1.3998677169561233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="13.5">
+        <v>-2.8504722400189735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="73"/>
       <c r="B12" s="59" t="s">
         <v>174</v>
@@ -7499,11 +6778,11 @@
       </c>
       <c r="E12" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F12" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G12" s="60">
         <v>4000</v>
@@ -7525,17 +6804,17 @@
       </c>
       <c r="L12" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>3.6457233223423202</v>
+        <v>0.45595268238017539</v>
       </c>
       <c r="M12" s="65"/>
       <c r="N12" s="59"/>
       <c r="O12" s="59">
         <f t="shared" si="0"/>
-        <v>3.6457233223423202</v>
-      </c>
-      <c r="P12" s="111">
+        <v>0.45595268238017539</v>
+      </c>
+      <c r="P12" s="103">
         <f>P11</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q12" s="60" t="s">
         <v>39</v>
@@ -7550,14 +6829,14 @@
       <c r="T12" s="66"/>
       <c r="U12" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>4.3800151350126271E-2</v>
+        <v>7.1251063422650418E-3</v>
       </c>
       <c r="V12" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.96250601404344849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.25" thickBot="1">
+        <v>0.19845760014049674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73"/>
       <c r="B13" s="67" t="s">
         <v>175</v>
@@ -7571,11 +6850,11 @@
       </c>
       <c r="E13" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F13" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G13" s="68" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
@@ -7593,7 +6872,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="67">
         <f>L12+L11</f>
-        <v>-3.8370038198575287</v>
+        <v>-26.728322624865623</v>
       </c>
       <c r="M13" s="68"/>
       <c r="N13" s="67">
@@ -7602,11 +6881,11 @@
       </c>
       <c r="O13" s="67">
         <f t="shared" si="0"/>
-        <v>3.8370038198575287</v>
-      </c>
-      <c r="P13" s="142">
+        <v>26.728322624865623</v>
+      </c>
+      <c r="P13" s="133">
         <f>P12</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
@@ -7615,18 +6894,18 @@
       </c>
       <c r="T13" s="72">
         <f>O13/P13</f>
-        <v>1.0596530847438632E-3</v>
+        <v>7.70268663540796E-3</v>
       </c>
       <c r="U13" s="72">
         <f>U12+U11</f>
-        <v>0.1142864518811848</v>
+        <v>0.21547119003226811</v>
       </c>
       <c r="V13" s="72">
         <f>V12+V11</f>
-        <v>-0.43736170291267484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.25" thickTop="1">
+        <v>-2.6520146398784767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="51" t="s">
         <v>173</v>
@@ -7639,11 +6918,11 @@
       </c>
       <c r="E14" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F14" s="54">
         <f ca="1">E14+H14</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G14" s="52">
         <v>3400</v>
@@ -7663,17 +6942,17 @@
       </c>
       <c r="L14" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-19.685958745393009</v>
+        <v>-57.658672575615128</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51">
         <f t="shared" ref="O14:O28" si="2">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>19.685958745393009</v>
-      </c>
-      <c r="P14" s="141">
+        <v>57.658672575615128</v>
+      </c>
+      <c r="P14" s="132">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q14" s="52" t="s">
         <v>85</v>
@@ -7688,14 +6967,14 @@
       <c r="T14" s="58"/>
       <c r="U14" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.15634449833896724</v>
+        <v>0.36325419252989377</v>
       </c>
       <c r="V14" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-2.4848194507225116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="13.5">
+        <v>-3.7288361123889899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="73"/>
       <c r="B15" s="59" t="s">
         <v>174</v>
@@ -7709,11 +6988,11 @@
       </c>
       <c r="E15" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F15" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G15" s="60">
         <v>4000</v>
@@ -7735,17 +7014,17 @@
       </c>
       <c r="L15" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>3.6457233223423202</v>
+        <v>0.45595268238017539</v>
       </c>
       <c r="M15" s="65"/>
       <c r="N15" s="59"/>
       <c r="O15" s="59">
         <f t="shared" si="2"/>
-        <v>3.6457233223423202</v>
-      </c>
-      <c r="P15" s="111">
+        <v>0.45595268238017539</v>
+      </c>
+      <c r="P15" s="103">
         <f>P14</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q15" s="60" t="s">
         <v>39</v>
@@ -7760,14 +7039,14 @@
       <c r="T15" s="66"/>
       <c r="U15" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.3800151350126271E-2</v>
+        <v>7.1251063422650418E-3</v>
       </c>
       <c r="V15" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.96250601404344849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.25" thickBot="1">
+        <v>0.19845760014049674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
       <c r="B16" s="67" t="s">
         <v>175</v>
@@ -7781,11 +7060,11 @@
       </c>
       <c r="E16" s="70">
         <f t="shared" ca="1" si="3"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F16" s="70">
         <f t="shared" ca="1" si="3"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G16" s="68" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -7803,7 +7082,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="67">
         <f>L15+L14</f>
-        <v>-16.040235423050689</v>
+        <v>-57.202719893234956</v>
       </c>
       <c r="M16" s="68"/>
       <c r="N16" s="67">
@@ -7812,11 +7091,11 @@
       </c>
       <c r="O16" s="67">
         <f t="shared" si="2"/>
-        <v>16.040235423050689</v>
-      </c>
-      <c r="P16" s="142">
+        <v>57.202719893234956</v>
+      </c>
+      <c r="P16" s="133">
         <f>P15</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q16" s="68"/>
       <c r="R16" s="68"/>
@@ -7825,18 +7104,18 @@
       </c>
       <c r="T16" s="72">
         <f>O16/P16</f>
-        <v>4.4297805642227808E-3</v>
+        <v>1.6484933686811226E-2</v>
       </c>
       <c r="U16" s="72">
         <f>U15+U14</f>
-        <v>0.20014464968909351</v>
+        <v>0.37037929887215881</v>
       </c>
       <c r="V16" s="72">
         <f>V15+V14</f>
-        <v>-1.5223134366790632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="14.25" thickTop="1">
+        <v>-3.5303785122484932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A17" s="73"/>
       <c r="B17" s="51" t="s">
         <v>173</v>
@@ -7849,11 +7128,11 @@
       </c>
       <c r="E17" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F17" s="54">
         <f ca="1">E17+H17</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G17" s="52">
         <v>3500</v>
@@ -7873,17 +7152,17 @@
       </c>
       <c r="L17" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-43.462428521555012</v>
+        <v>-105.29110784518116</v>
       </c>
       <c r="M17" s="57"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51">
         <f t="shared" si="2"/>
-        <v>43.462428521555012</v>
-      </c>
-      <c r="P17" s="141">
+        <v>105.29110784518116</v>
+      </c>
+      <c r="P17" s="132">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q17" s="52" t="s">
         <v>85</v>
@@ -7898,14 +7177,14 @@
       <c r="T17" s="58"/>
       <c r="U17" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>0.28755926377925789</v>
+        <v>0.53941633515250942</v>
       </c>
       <c r="V17" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-3.5354240507542158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="13.5">
+        <v>-3.9419236266921871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="73"/>
       <c r="B18" s="59" t="s">
         <v>174</v>
@@ -7919,11 +7198,11 @@
       </c>
       <c r="E18" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F18" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G18" s="60">
         <v>4000</v>
@@ -7945,17 +7224,17 @@
       </c>
       <c r="L18" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.6457233223423202</v>
+        <v>0.45595268238017539</v>
       </c>
       <c r="M18" s="65"/>
       <c r="N18" s="59"/>
       <c r="O18" s="59">
         <f t="shared" si="2"/>
-        <v>3.6457233223423202</v>
-      </c>
-      <c r="P18" s="111">
+        <v>0.45595268238017539</v>
+      </c>
+      <c r="P18" s="103">
         <f>P17</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q18" s="60" t="s">
         <v>39</v>
@@ -7970,14 +7249,14 @@
       <c r="T18" s="66"/>
       <c r="U18" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>4.3800151350126271E-2</v>
+        <v>7.1251063422650418E-3</v>
       </c>
       <c r="V18" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.96250601404344849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="14.25" thickBot="1">
+        <v>0.19845760014049674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="73"/>
       <c r="B19" s="67" t="s">
         <v>175</v>
@@ -7991,11 +7270,11 @@
       </c>
       <c r="E19" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F19" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G19" s="68" t="str">
         <f>G17 &amp; "|" &amp; G18</f>
@@ -8013,7 +7292,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="67">
         <f>L18+L17</f>
-        <v>-39.816705199212691</v>
+        <v>-104.83515516280099</v>
       </c>
       <c r="M19" s="68"/>
       <c r="N19" s="67">
@@ -8022,11 +7301,11 @@
       </c>
       <c r="O19" s="67">
         <f t="shared" si="2"/>
-        <v>39.816705199212691</v>
-      </c>
-      <c r="P19" s="142">
+        <v>104.83515516280099</v>
+      </c>
+      <c r="P19" s="133">
         <f>P18</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q19" s="68"/>
       <c r="R19" s="68"/>
@@ -8035,19 +7314,19 @@
       </c>
       <c r="T19" s="72">
         <f>O19/P19</f>
-        <v>1.0996052250542031E-2</v>
+        <v>3.021186027746426E-2</v>
       </c>
       <c r="U19" s="72">
         <f>U18+U17</f>
-        <v>0.33135941512938416</v>
+        <v>0.54654144149477446</v>
       </c>
       <c r="V19" s="72">
         <f>V18+V17</f>
-        <v>-2.5729180367107674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="114" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A20" s="113"/>
+        <v>-3.7434660265516904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="106" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="105"/>
       <c r="B20" s="51" t="s">
         <v>173</v>
       </c>
@@ -8059,11 +7338,11 @@
       </c>
       <c r="E20" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F20" s="54">
         <f ca="1">E20+H20</f>
-        <v>43264</v>
+        <v>43269</v>
       </c>
       <c r="G20" s="52">
         <v>3300</v>
@@ -8083,17 +7362,17 @@
       </c>
       <c r="L20" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-43.697721897314636</v>
+        <v>-80.372314117478709</v>
       </c>
       <c r="M20" s="57"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51">
         <f t="shared" si="2"/>
-        <v>43.697721897314636</v>
-      </c>
-      <c r="P20" s="141">
+        <v>80.372314117478709</v>
+      </c>
+      <c r="P20" s="132">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q20" s="52" t="s">
         <v>85</v>
@@ -8108,15 +7387,15 @@
       <c r="T20" s="58"/>
       <c r="U20" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.18669472465262515</v>
+        <v>0.30510909545000686</v>
       </c>
       <c r="V20" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-4.8151480665758868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A21" s="115"/>
+        <v>-6.0188266180387018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="107"/>
       <c r="B21" s="59" t="s">
         <v>174</v>
       </c>
@@ -8129,11 +7408,11 @@
       </c>
       <c r="E21" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F21" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43264</v>
+        <v>43269</v>
       </c>
       <c r="G21" s="60">
         <v>4000</v>
@@ -8155,17 +7434,17 @@
       </c>
       <c r="L21" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>31.172015613900726</v>
+        <v>12.587151127198297</v>
       </c>
       <c r="M21" s="65"/>
       <c r="N21" s="59"/>
       <c r="O21" s="59">
         <f t="shared" si="2"/>
-        <v>31.172015613900726</v>
-      </c>
-      <c r="P21" s="111">
+        <v>12.587151127198297</v>
+      </c>
+      <c r="P21" s="103">
         <f>P20</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q21" s="60" t="s">
         <v>39</v>
@@ -8180,15 +7459,15 @@
       <c r="T21" s="66"/>
       <c r="U21" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.16953951064806461</v>
+        <v>8.3139625181161136E-2</v>
       </c>
       <c r="V21" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>4.5303031664701621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A22" s="115"/>
+        <v>2.6317049329606022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="104" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="107"/>
       <c r="B22" s="67" t="s">
         <v>175</v>
       </c>
@@ -8201,11 +7480,11 @@
       </c>
       <c r="E22" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F22" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v>43264</v>
+        <v>43269</v>
       </c>
       <c r="G22" s="68" t="str">
         <f>G20 &amp; "|" &amp; G21</f>
@@ -8223,7 +7502,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="67">
         <f>L21+L20</f>
-        <v>-12.525706283413911</v>
+        <v>-67.785162990280412</v>
       </c>
       <c r="M22" s="68"/>
       <c r="N22" s="67">
@@ -8232,11 +7511,11 @@
       </c>
       <c r="O22" s="67">
         <f t="shared" si="2"/>
-        <v>12.525706283413911</v>
-      </c>
-      <c r="P22" s="142">
+        <v>67.785162990280412</v>
+      </c>
+      <c r="P22" s="133">
         <f>P21</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
@@ -8245,19 +7524,19 @@
       </c>
       <c r="T22" s="72">
         <f>O22/P22</f>
-        <v>3.4591842815282826E-3</v>
+        <v>1.9534629103827209E-2</v>
       </c>
       <c r="U22" s="72">
         <f>U21+U20</f>
-        <v>0.35623423530068976</v>
+        <v>0.388248720631168</v>
       </c>
       <c r="V22" s="72">
         <f>V21+V20</f>
-        <v>-0.28484490010572472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="112" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A23" s="115"/>
+        <v>-3.3871216850780996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="104" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="107"/>
       <c r="B23" s="51" t="s">
         <v>173</v>
       </c>
@@ -8269,11 +7548,11 @@
       </c>
       <c r="E23" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F23" s="54">
         <f ca="1">E23+H23</f>
-        <v>43264</v>
+        <v>43269</v>
       </c>
       <c r="G23" s="52">
         <v>3400</v>
@@ -8293,17 +7572,17 @@
       </c>
       <c r="L23" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-69.716127364010731</v>
+        <v>-119.96984527111022</v>
       </c>
       <c r="M23" s="57"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51">
         <f t="shared" si="2"/>
-        <v>69.716127364010731</v>
-      </c>
-      <c r="P23" s="141">
+        <v>119.96984527111022</v>
+      </c>
+      <c r="P23" s="132">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q23" s="52" t="s">
         <v>85</v>
@@ -8318,15 +7597,15 @@
       <c r="T23" s="58"/>
       <c r="U23" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0.26647177241443387</v>
+        <v>0.4038412629938648</v>
       </c>
       <c r="V23" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-5.8899081679359142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A24" s="115"/>
+        <v>-6.6486047157426356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="107"/>
       <c r="B24" s="59" t="s">
         <v>174</v>
       </c>
@@ -8339,11 +7618,11 @@
       </c>
       <c r="E24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43264</v>
+        <v>43269</v>
       </c>
       <c r="G24" s="60">
         <v>4000</v>
@@ -8365,17 +7644,17 @@
       </c>
       <c r="L24" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>31.172015613900726</v>
+        <v>12.587151127198297</v>
       </c>
       <c r="M24" s="65"/>
       <c r="N24" s="59"/>
       <c r="O24" s="59">
         <f t="shared" si="2"/>
-        <v>31.172015613900726</v>
-      </c>
-      <c r="P24" s="111">
+        <v>12.587151127198297</v>
+      </c>
+      <c r="P24" s="103">
         <f>P23</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q24" s="60" t="s">
         <v>39</v>
@@ -8390,15 +7669,15 @@
       <c r="T24" s="66"/>
       <c r="U24" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>0.16953951064806461</v>
+        <v>8.3139625181161136E-2</v>
       </c>
       <c r="V24" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>4.5303031664701621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A25" s="115"/>
+        <v>2.6317049329606022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="104" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="107"/>
       <c r="B25" s="67" t="s">
         <v>175</v>
       </c>
@@ -8411,11 +7690,11 @@
       </c>
       <c r="E25" s="70">
         <f t="shared" ca="1" si="6"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F25" s="70">
         <f t="shared" ca="1" si="6"/>
-        <v>43264</v>
+        <v>43269</v>
       </c>
       <c r="G25" s="68" t="str">
         <f>G23 &amp; "|" &amp; G24</f>
@@ -8433,7 +7712,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="67">
         <f>L24+L23</f>
-        <v>-38.544111750110005</v>
+        <v>-107.38269414391192</v>
       </c>
       <c r="M25" s="68"/>
       <c r="N25" s="67">
@@ -8442,11 +7721,11 @@
       </c>
       <c r="O25" s="67">
         <f t="shared" si="2"/>
-        <v>38.544111750110005</v>
-      </c>
-      <c r="P25" s="142">
+        <v>107.38269414391192</v>
+      </c>
+      <c r="P25" s="133">
         <f>P24</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q25" s="68"/>
       <c r="R25" s="68"/>
@@ -8455,19 +7734,19 @@
       </c>
       <c r="T25" s="72">
         <f>O25/P25</f>
-        <v>1.0644604183957471E-2</v>
+        <v>3.0946021367121591E-2</v>
       </c>
       <c r="U25" s="72">
         <f>U24+U23</f>
-        <v>0.43601128306249848</v>
+        <v>0.48698088817502594</v>
       </c>
       <c r="V25" s="72">
         <f>V24+V23</f>
-        <v>-1.3596050014657521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="112" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A26" s="115"/>
+        <v>-4.0168997827820334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="104" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="107"/>
       <c r="B26" s="51" t="s">
         <v>173</v>
       </c>
@@ -8479,11 +7758,11 @@
       </c>
       <c r="E26" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F26" s="54">
         <f ca="1">E26+H26</f>
-        <v>43358</v>
+        <v>43363</v>
       </c>
       <c r="G26" s="52">
         <v>3600</v>
@@ -8503,17 +7782,17 @@
       </c>
       <c r="L26" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>146.67025830244165</v>
+        <v>226.40151054342732</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="51"/>
       <c r="O26" s="51">
         <f t="shared" si="2"/>
-        <v>146.67025830244165</v>
-      </c>
-      <c r="P26" s="141">
+        <v>226.40151054342732</v>
+      </c>
+      <c r="P26" s="132">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q26" s="52" t="s">
         <v>85</v>
@@ -8528,15 +7807,15 @@
       <c r="T26" s="58"/>
       <c r="U26" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.45246166171182267</v>
+        <v>-0.6038265155893896</v>
       </c>
       <c r="V26" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>10.094665487050634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A27" s="115"/>
+        <v>9.35621904832783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="107"/>
       <c r="B27" s="59" t="s">
         <v>174</v>
       </c>
@@ -8549,11 +7828,11 @@
       </c>
       <c r="E27" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F27" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43358</v>
+        <v>43363</v>
       </c>
       <c r="G27" s="60">
         <v>4000</v>
@@ -8575,17 +7854,17 @@
       </c>
       <c r="L27" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-59.992501348125529</v>
+        <v>-31.529848310694831</v>
       </c>
       <c r="M27" s="65"/>
       <c r="N27" s="59"/>
       <c r="O27" s="59">
         <f t="shared" si="2"/>
-        <v>59.992501348125529</v>
-      </c>
-      <c r="P27" s="111">
+        <v>31.529848310694831</v>
+      </c>
+      <c r="P27" s="103">
         <f>P26</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q27" s="60" t="s">
         <v>39</v>
@@ -8600,15 +7879,15 @@
       <c r="T27" s="66"/>
       <c r="U27" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.23492474427939669</v>
+        <v>-0.14577452605522012</v>
       </c>
       <c r="V27" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-7.8575135999683994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A28" s="115"/>
+        <v>-5.6105537763260713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="104" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="107"/>
       <c r="B28" s="67" t="s">
         <v>175</v>
       </c>
@@ -8621,11 +7900,11 @@
       </c>
       <c r="E28" s="70">
         <f t="shared" ca="1" si="7"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F28" s="70">
         <f t="shared" ca="1" si="7"/>
-        <v>43358</v>
+        <v>43363</v>
       </c>
       <c r="G28" s="68" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -8643,7 +7922,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="67">
         <f>L27+L26</f>
-        <v>86.677756954316123</v>
+        <v>194.87166223273249</v>
       </c>
       <c r="M28" s="68"/>
       <c r="N28" s="67">
@@ -8652,11 +7931,11 @@
       </c>
       <c r="O28" s="67">
         <f t="shared" si="2"/>
-        <v>86.677756954316123</v>
-      </c>
-      <c r="P28" s="142">
+        <v>194.87166223273249</v>
+      </c>
+      <c r="P28" s="133">
         <f>P27</f>
-        <v>3621</v>
+        <v>3470</v>
       </c>
       <c r="Q28" s="68"/>
       <c r="R28" s="68"/>
@@ -8665,19 +7944,19 @@
       </c>
       <c r="T28" s="72">
         <f>O28/P28</f>
-        <v>2.3937519180976561E-2</v>
+        <v>5.6158980470528093E-2</v>
       </c>
       <c r="U28" s="72">
         <f>U27+U26</f>
-        <v>-0.68738640599121936</v>
+        <v>-0.74960104164460972</v>
       </c>
       <c r="V28" s="72">
         <f>V27+V26</f>
-        <v>2.2371518870822342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="114" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A29" s="113"/>
+        <v>3.7456652720017587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="106" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="105"/>
       <c r="B29" s="51" t="s">
         <v>173</v>
       </c>
@@ -8685,15 +7964,15 @@
         <v>160</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F29" s="54">
         <f ca="1">E29+H29</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G29" s="52">
         <v>92</v>
@@ -8721,7 +8000,7 @@
         <f t="shared" ref="O29:O34" si="8">IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
         <v>0.36061626839030225</v>
       </c>
-      <c r="P29" s="141">
+      <c r="P29" s="132">
         <v>100</v>
       </c>
       <c r="Q29" s="52" t="s">
@@ -8744,8 +8023,8 @@
         <v>-5.2489438908342123E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A30" s="115"/>
+    <row r="30" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="107"/>
       <c r="B30" s="59" t="s">
         <v>174</v>
       </c>
@@ -8758,11 +8037,11 @@
       </c>
       <c r="E30" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F30" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G30" s="60">
         <v>105</v>
@@ -8792,7 +8071,7 @@
         <f t="shared" si="8"/>
         <v>0.72669566514838735</v>
       </c>
-      <c r="P30" s="111">
+      <c r="P30" s="103">
         <f>P29</f>
         <v>100</v>
       </c>
@@ -8816,8 +8095,8 @@
         <v>8.4167489640684323E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A31" s="115"/>
+    <row r="31" spans="1:22" s="104" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="107"/>
       <c r="B31" s="67" t="s">
         <v>175</v>
       </c>
@@ -8830,11 +8109,11 @@
       </c>
       <c r="E31" s="70">
         <f t="shared" ca="1" si="10"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F31" s="70">
         <f t="shared" ca="1" si="10"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G31" s="68" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -8865,7 +8144,7 @@
         <f t="shared" si="8"/>
         <v>0.32498350634712619</v>
       </c>
-      <c r="P31" s="142">
+      <c r="P31" s="133">
         <f>P30</f>
         <v>100</v>
       </c>
@@ -8887,8 +8166,8 @@
         <v>3.16780507323422E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="112" customFormat="1" ht="14.25" thickTop="1">
-      <c r="A32" s="115"/>
+    <row r="32" spans="1:22" s="104" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="107"/>
       <c r="B32" s="51" t="s">
         <v>173</v>
       </c>
@@ -8896,15 +8175,15 @@
         <v>160</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" s="54">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F32" s="54">
         <f ca="1">E32+H32</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G32" s="52">
         <v>95</v>
@@ -8932,7 +8211,7 @@
         <f t="shared" si="8"/>
         <v>0.88478777957798371</v>
       </c>
-      <c r="P32" s="141">
+      <c r="P32" s="132">
         <v>100</v>
       </c>
       <c r="Q32" s="52" t="s">
@@ -8955,8 +8234,8 @@
         <v>-8.421063147348562E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A33" s="115"/>
+    <row r="33" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="107"/>
       <c r="B33" s="59" t="s">
         <v>174</v>
       </c>
@@ -8969,11 +8248,11 @@
       </c>
       <c r="E33" s="62">
         <f t="shared" ca="1" si="11"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F33" s="62">
         <f t="shared" ca="1" si="11"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G33" s="60">
         <v>102.5</v>
@@ -9003,7 +8282,7 @@
         <f t="shared" si="8"/>
         <v>1.3808360714662911</v>
       </c>
-      <c r="P33" s="111">
+      <c r="P33" s="103">
         <f>P32</f>
         <v>100</v>
       </c>
@@ -9027,8 +8306,8 @@
         <v>0.1062109636871611</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A34" s="115"/>
+    <row r="34" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="107"/>
       <c r="B34" s="67" t="s">
         <v>175</v>
       </c>
@@ -9041,11 +8320,11 @@
       </c>
       <c r="E34" s="70">
         <f t="shared" ca="1" si="12"/>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="F34" s="70">
         <f t="shared" ca="1" si="12"/>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="G34" s="68" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -9076,7 +8355,7 @@
         <f t="shared" si="8"/>
         <v>0.45495240147734844</v>
       </c>
-      <c r="P34" s="142">
+      <c r="P34" s="133">
         <f>P33</f>
         <v>100</v>
       </c>
@@ -9098,8 +8377,8 @@
         <v>2.2000332213675478E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A35" s="116"/>
+    <row r="35" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="108"/>
       <c r="B35" s="59"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
@@ -9114,7 +8393,7 @@
       <c r="M35" s="65"/>
       <c r="N35" s="59"/>
       <c r="O35" s="59"/>
-      <c r="P35" s="111"/>
+      <c r="P35" s="103"/>
       <c r="Q35" s="60"/>
       <c r="R35" s="60"/>
       <c r="S35" s="64"/>
@@ -9122,8 +8401,8 @@
       <c r="U35" s="59"/>
       <c r="V35" s="59"/>
     </row>
-    <row r="36" spans="1:22" s="112" customFormat="1" ht="13.5">
-      <c r="A36" s="116"/>
+    <row r="36" spans="1:22" s="104" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="108"/>
       <c r="B36" s="59"/>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
@@ -9146,31 +8425,31 @@
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
     </row>
-    <row r="37" spans="1:22" s="125" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="124"/>
-      <c r="V37" s="124"/>
-    </row>
-    <row r="38" spans="1:22">
+    <row r="37" spans="1:22" s="117" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="115"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B38" s="37"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -9193,7 +8472,7 @@
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B39" s="37"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -9264,7 +8543,7 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
@@ -9285,13 +8564,13 @@
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="167" t="s">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="167"/>
-    </row>
-    <row r="2" spans="1:25" ht="12" thickTop="1">
+      <c r="C1" s="157"/>
+    </row>
+    <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -9299,7 +8578,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -9307,7 +8586,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12" thickBot="1">
+    <row r="4" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -9315,8 +8594,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12" thickTop="1"/>
-    <row r="6" spans="1:25" ht="12" thickBot="1">
+    <row r="5" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -9342,7 +8621,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -9414,7 +8693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12" thickTop="1">
+    <row r="8" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -9437,7 +8716,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3752</v>
+        <v>3648</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -9454,11 +8733,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -9475,33 +8754,33 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-44.930273075284042</v>
+        <v>-28.990501161409885</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.467068493150685</v>
+        <v>2.3986849315068492</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>47.397341568434726</v>
+        <v>31.389186092916734</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.2632553722930364E-2</v>
+        <v>8.6044918017863861E-3</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.15945540159485461</v>
+        <v>0.12677965101133282</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.79968278150695937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>1.0069149935103621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
       <c r="B9" s="13" t="s">
         <v>172</v>
@@ -9540,11 +8819,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43354</v>
+        <v>43359</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -9587,7 +8866,7 @@
         <v>-4.1771721369176229E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B10" s="13"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -9613,7 +8892,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9639,7 +8918,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9665,7 +8944,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B13" s="13"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9691,7 +8970,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B14" s="13"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9717,7 +8996,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9743,7 +9022,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -9769,7 +9048,7 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -9795,7 +9074,7 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9821,7 +9100,7 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="13"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -9847,7 +9126,7 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="13"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9873,7 +9152,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -9899,7 +9178,7 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9925,7 +9204,7 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -9951,7 +9230,7 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -9977,7 +9256,7 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -10003,7 +9282,7 @@
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -10029,7 +9308,7 @@
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -10055,7 +9334,7 @@
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -10081,7 +9360,7 @@
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
     </row>
-    <row r="29" spans="2:25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -10107,7 +9386,7 @@
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10133,7 +9412,7 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B31" s="13"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -10159,7 +9438,7 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -10185,7 +9464,7 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
     </row>
-    <row r="33" spans="2:25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B33" s="13"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -10211,7 +9490,7 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B34" s="13"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -10237,7 +9516,7 @@
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -10263,7 +9542,7 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -10289,7 +9568,7 @@
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -10315,7 +9594,7 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10341,7 +9620,7 @@
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -10411,16 +9690,16 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="74">
         <v>43087</v>
       </c>
@@ -10434,7 +9713,7 @@
       </c>
       <c r="F1" s="77"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
         <v>51</v>
       </c>
@@ -10454,7 +9733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="82" t="s">
         <v>57</v>
       </c>
@@ -10474,7 +9753,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>59</v>
       </c>
@@ -10494,7 +9773,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
         <v>61</v>
       </c>
@@ -10506,7 +9785,7 @@
       <c r="E5" s="85"/>
       <c r="F5" s="89"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -10526,7 +9805,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
         <v>65</v>
       </c>
@@ -10546,7 +9825,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
         <v>67</v>
       </c>
@@ -10566,7 +9845,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
         <v>69</v>
       </c>
@@ -10586,7 +9865,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78" t="s">
         <v>71</v>
       </c>
@@ -10606,7 +9885,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>73</v>
       </c>
@@ -10626,7 +9905,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
         <v>75</v>
       </c>
@@ -10646,7 +9925,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
         <v>77</v>
       </c>
@@ -10666,7 +9945,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
         <v>79</v>
       </c>
@@ -10686,7 +9965,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
         <v>81</v>
       </c>
@@ -10698,7 +9977,7 @@
       <c r="E15" s="85"/>
       <c r="F15" s="89"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
         <v>83</v>
       </c>
@@ -10718,7 +9997,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="82" t="s">
         <v>85</v>
       </c>
@@ -10738,7 +10017,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
         <v>87</v>
       </c>
@@ -10750,7 +10029,7 @@
       <c r="E18" s="94"/>
       <c r="F18" s="95"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
         <v>89</v>
       </c>
@@ -10762,7 +10041,7 @@
       <c r="E19" s="85"/>
       <c r="F19" s="89"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
         <v>91</v>
       </c>
@@ -10782,7 +10061,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
         <v>93</v>
       </c>
@@ -10794,7 +10073,7 @@
       <c r="E21" s="85"/>
       <c r="F21" s="89"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78" t="s">
         <v>95</v>
       </c>
@@ -10814,7 +10093,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
         <v>97</v>
       </c>
@@ -10834,7 +10113,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
         <v>39</v>
       </c>
@@ -10854,7 +10133,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
         <v>100</v>
       </c>
@@ -10874,7 +10153,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>102</v>
       </c>
@@ -10894,7 +10173,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="82" t="s">
         <v>104</v>
       </c>
@@ -10906,7 +10185,7 @@
       <c r="E27" s="96"/>
       <c r="F27" s="97"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
         <v>106</v>
       </c>
@@ -10918,7 +10197,7 @@
       <c r="E28" s="98"/>
       <c r="F28" s="99"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="82" t="s">
         <v>108</v>
       </c>
@@ -10938,7 +10217,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="78" t="s">
         <v>110</v>
       </c>
@@ -10958,7 +10237,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="82" t="s">
         <v>112</v>
       </c>
@@ -10970,7 +10249,7 @@
       <c r="E31" s="85"/>
       <c r="F31" s="89"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78" t="s">
         <v>114</v>
       </c>
@@ -10990,7 +10269,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="82" t="s">
         <v>116</v>
       </c>
@@ -11025,12 +10304,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -11051,7 +10330,7 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -11072,7 +10351,7 @@
       <c r="O2" s="40"/>
       <c r="P2" s="40"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -11080,7 +10359,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -11088,118 +10367,118 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
     </row>
   </sheetData>
@@ -11217,7 +10496,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
@@ -11235,13 +10514,13 @@
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="169" t="s">
+    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="169"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1">
+      <c r="C1" s="159"/>
+    </row>
+    <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -11249,7 +10528,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -11257,7 +10536,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -11265,8 +10544,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1"/>
-    <row r="6" spans="1:21" ht="12" thickBot="1">
+    <row r="5" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -11288,7 +10567,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -11348,7 +10627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -11371,18 +10650,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3752</v>
+        <v>3648</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -11396,33 +10675,33 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>108.17498676479181</v>
+        <v>66.74563284519536</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.467068493150685</v>
+        <v>2.3986849315068492</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>110.6420552579425</v>
+        <v>69.144317776702209</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>2.948882069774587E-2</v>
+        <v>1.8954034478262667E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.46168178716925468</v>
+        <v>0.3362090946779972</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.268307061478481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>3.8131989226360474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
       <c r="B9" s="13" t="s">
         <v>172</v>
@@ -11451,11 +10730,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -11495,7 +10774,7 @@
         <v>0.11412144299254479</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B10" s="13"/>
       <c r="C10" s="10" t="s">
         <v>41</v>
@@ -11521,11 +10800,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43179</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43204</v>
+        <v>43209</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -11565,7 +10844,7 @@
         <v>0.11412144299254479</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
@@ -11589,7 +10868,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -11611,7 +10890,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B13" s="13"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -11633,7 +10912,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B14" s="13"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -11655,7 +10934,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -11677,7 +10956,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -11699,7 +10978,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -11721,7 +11000,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -11743,7 +11022,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="13"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -11765,7 +11044,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="13"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -11787,7 +11066,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -11809,7 +11088,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -11831,7 +11110,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -11853,7 +11132,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -11875,7 +11154,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -11897,7 +11176,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -11919,7 +11198,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -11941,7 +11220,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -11963,7 +11242,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -11985,7 +11264,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -12007,7 +11286,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="13"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12029,7 +11308,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -12051,7 +11330,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" s="13"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -12073,7 +11352,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" s="13"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -12095,7 +11374,7 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -12117,7 +11396,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -12139,7 +11418,7 @@
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -12161,7 +11440,7 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -12183,7 +11462,7 @@
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
